--- a/scripts/shstrophies/data/Mr Torren_s initial data input/Spring Awards/Other Awards.xlsx
+++ b/scripts/shstrophies/data/Mr Torren_s initial data input/Spring Awards/Other Awards.xlsx
@@ -22,18 +22,627 @@
     <t>Year</t>
   </si>
   <si>
+    <t>Overal Memoral Award</t>
+  </si>
+  <si>
+    <t>Badminton</t>
+  </si>
+  <si>
+    <t>Baseball</t>
+  </si>
+  <si>
+    <t>1986/1987</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Cross Country</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>Lacrosse</t>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t>Swimming</t>
+  </si>
+  <si>
+    <t>Tennis</t>
+  </si>
+  <si>
+    <t>Track</t>
+  </si>
+  <si>
+    <t>Water Polo</t>
+  </si>
+  <si>
+    <t>Volleyball</t>
+  </si>
+  <si>
+    <t>Wrestling</t>
+  </si>
+  <si>
+    <t>1975/1976</t>
+  </si>
+  <si>
+    <t>Tom Kittleson</t>
+  </si>
+  <si>
+    <t>1987/1988</t>
+  </si>
+  <si>
+    <t>1988/1989</t>
+  </si>
+  <si>
+    <t>1989/1990</t>
+  </si>
+  <si>
+    <t>Scott Graham</t>
+  </si>
+  <si>
+    <t>1990/1991</t>
+  </si>
+  <si>
+    <t>Mike Dyer</t>
+  </si>
+  <si>
+    <t>Doug Raisch</t>
+  </si>
+  <si>
+    <t>Bob Miroyan</t>
+  </si>
+  <si>
+    <t>Andy Rasdal</t>
+  </si>
+  <si>
+    <t>1991/1992</t>
+  </si>
+  <si>
+    <t>Jim Ladd</t>
+  </si>
+  <si>
+    <t>John Kennedy</t>
+  </si>
+  <si>
+    <t>Scott Mathews</t>
+  </si>
+  <si>
+    <t>Kirk Kozlowski</t>
+  </si>
+  <si>
+    <t>Steve Kingsbury</t>
+  </si>
+  <si>
+    <t>1992/1993</t>
+  </si>
+  <si>
+    <t>1976/1977</t>
+  </si>
+  <si>
+    <t>1993/1994</t>
+  </si>
+  <si>
+    <t>Rob Snyder</t>
+  </si>
+  <si>
+    <t>Tom Armstrong</t>
+  </si>
+  <si>
+    <t>Steve Bruns</t>
+  </si>
+  <si>
+    <t>Dave Gragnola</t>
+  </si>
+  <si>
+    <t>Dave Escobar</t>
+  </si>
+  <si>
+    <t>Charles Kessel</t>
+  </si>
+  <si>
+    <t>1994/1995</t>
+  </si>
+  <si>
+    <t>Greg McKenzie</t>
+  </si>
+  <si>
+    <t>Greg Lahann</t>
+  </si>
+  <si>
+    <t>1977/1978</t>
+  </si>
+  <si>
+    <t>1995/1996</t>
+  </si>
+  <si>
+    <t>Ted Hanson</t>
+  </si>
+  <si>
+    <t>1996/1997</t>
+  </si>
+  <si>
+    <t>Mark Chamberlin</t>
+  </si>
+  <si>
+    <t>Craig Johnson</t>
+  </si>
+  <si>
+    <t>Steve Campbell</t>
+  </si>
+  <si>
+    <t>1997/1998</t>
+  </si>
+  <si>
+    <t>Rod Tiffee</t>
+  </si>
+  <si>
+    <t>Mark Graham</t>
+  </si>
+  <si>
+    <t>Brad Breiholz</t>
+  </si>
+  <si>
+    <t>Rich Soergel</t>
+  </si>
+  <si>
+    <t>1998/1999</t>
+  </si>
+  <si>
+    <t>Dave Dunlap</t>
+  </si>
+  <si>
+    <t>Bob Tobiason</t>
+  </si>
+  <si>
+    <t>Rick Donaldson</t>
+  </si>
+  <si>
+    <t>1999/2000</t>
+  </si>
+  <si>
+    <t>1978/1979</t>
+  </si>
+  <si>
+    <t>Jeff Lane</t>
+  </si>
+  <si>
+    <t>Lindsay Meggs</t>
+  </si>
+  <si>
+    <t>2000/2001</t>
+  </si>
+  <si>
+    <t>John OConnell</t>
+  </si>
+  <si>
+    <t>Mark Gyorey</t>
+  </si>
+  <si>
+    <t>2001/2002</t>
+  </si>
+  <si>
+    <t>Tim Hargrave</t>
+  </si>
+  <si>
+    <t>Robert Tobiason</t>
+  </si>
+  <si>
+    <t>Steve Hoag</t>
+  </si>
+  <si>
+    <t>Ed healy</t>
+  </si>
+  <si>
+    <t>2002/2003</t>
+  </si>
+  <si>
+    <t>Charles Sheppard</t>
+  </si>
+  <si>
+    <t>Greg Rodrigues</t>
+  </si>
+  <si>
+    <t>2003/2004</t>
+  </si>
+  <si>
+    <t>1979/1980</t>
+  </si>
+  <si>
+    <t>John de Bennedetti</t>
+  </si>
+  <si>
+    <t>Tom Hodge</t>
+  </si>
+  <si>
+    <t>Tim Taylor</t>
+  </si>
+  <si>
+    <t>2004/2005</t>
+  </si>
+  <si>
+    <t>Ted Trouard</t>
+  </si>
+  <si>
+    <t>Kevin perry</t>
+  </si>
+  <si>
+    <t>Scott Theis</t>
+  </si>
+  <si>
+    <t>Gary Dorff</t>
+  </si>
+  <si>
+    <t>2005/2006</t>
+  </si>
+  <si>
+    <t>Steve Byrne</t>
+  </si>
+  <si>
+    <t>Greg Wolff</t>
+  </si>
+  <si>
+    <t>Thad Whalen</t>
+  </si>
+  <si>
+    <t>Lee Hold</t>
+  </si>
+  <si>
+    <t>2006/2007</t>
+  </si>
+  <si>
+    <t>John de Benedetti</t>
+  </si>
+  <si>
+    <t>1980/1981</t>
+  </si>
+  <si>
+    <t>2007/2008</t>
+  </si>
+  <si>
+    <t>Mike Stypula</t>
+  </si>
+  <si>
+    <t>2008/2009</t>
+  </si>
+  <si>
+    <t>Brian Matteoni</t>
+  </si>
+  <si>
+    <t>Randy Foland</t>
+  </si>
+  <si>
+    <t>Jeff Salazar</t>
+  </si>
+  <si>
+    <t>Paul Ferreira</t>
+  </si>
+  <si>
+    <t>2009/2010</t>
+  </si>
+  <si>
+    <t>Gary Hilton</t>
+  </si>
+  <si>
+    <t>Nicole Gragnola</t>
+  </si>
+  <si>
+    <t>Elliot jacobson</t>
+  </si>
+  <si>
+    <t>Dave Moore</t>
+  </si>
+  <si>
+    <t>Rusty Shaffer</t>
+  </si>
+  <si>
+    <t>Tony Cannestra</t>
+  </si>
+  <si>
+    <t>Cliff Gustafson</t>
+  </si>
+  <si>
+    <t>2010/2011</t>
+  </si>
+  <si>
+    <t>Adrienne Norris</t>
+  </si>
+  <si>
+    <t>1981/1982</t>
+  </si>
+  <si>
+    <t>Howard Hold</t>
+  </si>
+  <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
+    <t>Todd Pace</t>
+  </si>
+  <si>
+    <t>Ailene Nguyen</t>
+  </si>
+  <si>
+    <t>Scott Brown</t>
+  </si>
+  <si>
+    <t>Mike Norcia</t>
+  </si>
+  <si>
+    <t>Craig Isaacson</t>
+  </si>
+  <si>
+    <t>Frank Fletcher</t>
+  </si>
+  <si>
+    <t>Howard hold</t>
+  </si>
+  <si>
+    <t>Jeff Foster</t>
+  </si>
+  <si>
+    <t>David Wood</t>
+  </si>
+  <si>
+    <t>1982/1983</t>
+  </si>
+  <si>
+    <t>Mike Giraudo</t>
+  </si>
+  <si>
+    <t>Steffo Mitakides</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>Mike Turner</t>
+  </si>
+  <si>
+    <t>Hannah Johnson</t>
+  </si>
+  <si>
+    <t>Bob Pacheco</t>
+  </si>
+  <si>
+    <t>Bruce Hilton</t>
+  </si>
+  <si>
+    <t>Randy Judd</t>
+  </si>
+  <si>
+    <t>Scott Patridge</t>
+  </si>
+  <si>
+    <t>Mike Kibort</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>Peter Nimb</t>
+  </si>
+  <si>
+    <t>Tivoli Sisco</t>
+  </si>
+  <si>
+    <t>Mike Logan</t>
+  </si>
+  <si>
+    <t>1983/1984</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>Zane Tabari</t>
+  </si>
+  <si>
+    <t>Puck de Roos</t>
+  </si>
+  <si>
+    <t>John Trummel</t>
+  </si>
+  <si>
+    <t>Doug Golliher</t>
+  </si>
+  <si>
+    <t>Ryan Iwanaga</t>
+  </si>
+  <si>
+    <t>Richard Sheppard</t>
+  </si>
+  <si>
+    <t>Chris Robinson</t>
+  </si>
+  <si>
+    <t>Andy Banks</t>
+  </si>
+  <si>
+    <t>Doug Hancock</t>
+  </si>
+  <si>
+    <t>Greg Steinbach</t>
+  </si>
+  <si>
+    <t>Ed Kirk</t>
+  </si>
+  <si>
+    <t>1984/1985</t>
+  </si>
+  <si>
+    <t>John Leckrone</t>
+  </si>
+  <si>
+    <t>Lee Hancock</t>
+  </si>
+  <si>
+    <t>Gary Gatiss</t>
+  </si>
+  <si>
+    <t>Richard Salazar</t>
+  </si>
+  <si>
+    <t>Carl Goedjen</t>
+  </si>
+  <si>
+    <t>Mike Walen</t>
+  </si>
+  <si>
+    <t>Eric Christoferson</t>
+  </si>
+  <si>
+    <t>Steve Vindasius</t>
+  </si>
+  <si>
+    <t>Dave Lambert</t>
+  </si>
+  <si>
+    <t>1985/1986</t>
+  </si>
+  <si>
+    <t>Greg Ryoyse</t>
+  </si>
+  <si>
+    <t>Scott Hosue</t>
+  </si>
+  <si>
+    <t>Scott Sutter</t>
+  </si>
+  <si>
+    <t>Mike Marlow</t>
+  </si>
+  <si>
+    <t>John Renola</t>
+  </si>
+  <si>
+    <t>Greg Lipton</t>
+  </si>
+  <si>
+    <t>Greg Royse</t>
+  </si>
+  <si>
+    <t>Keith Burnett</t>
+  </si>
+  <si>
+    <t>Tom Adams</t>
+  </si>
+  <si>
+    <t>Aaron Gustafson</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>Steve Liao</t>
+  </si>
+  <si>
+    <t>John Devine</t>
+  </si>
+  <si>
+    <t>Dave Schwartz</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
+  <si>
+    <t>John Denery</t>
+  </si>
+  <si>
+    <t>Brian Gurney</t>
+  </si>
+  <si>
+    <t>Tyson Draeger</t>
+  </si>
+  <si>
+    <t>2017/2018</t>
+  </si>
+  <si>
+    <t>Jim Elliott</t>
+  </si>
+  <si>
+    <t>Craig Tammel</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
+  </si>
+  <si>
+    <t>Matt Wilson</t>
+  </si>
+  <si>
+    <t>Peter Newton</t>
+  </si>
+  <si>
+    <t>David Ansnes</t>
+  </si>
+  <si>
+    <t>Keith tokar</t>
+  </si>
+  <si>
+    <t>Curtis Kanazawa</t>
+  </si>
+  <si>
+    <t>Jeff Vierra</t>
+  </si>
+  <si>
+    <t>David Martin</t>
+  </si>
+  <si>
+    <t>Brian Thompson</t>
+  </si>
+  <si>
+    <t>Said Kordestani</t>
+  </si>
+  <si>
+    <t>Frazier Hubbard</t>
+  </si>
+  <si>
     <t>1959/1960</t>
   </si>
   <si>
+    <t>Mike Burnett</t>
+  </si>
+  <si>
     <t>Wayne Brazil</t>
   </si>
   <si>
+    <t>Jeff Lawler</t>
+  </si>
+  <si>
+    <t>Geoff Spencer</t>
+  </si>
+  <si>
+    <t>Sam Moore</t>
+  </si>
+  <si>
+    <t>Dan Edson</t>
+  </si>
+  <si>
+    <t>Ed Owen</t>
+  </si>
+  <si>
     <t>1960/1961</t>
   </si>
   <si>
+    <t>Christian Saucedo</t>
+  </si>
+  <si>
     <t>Hal Shaffer</t>
   </si>
   <si>
+    <t>Craig Dooley</t>
+  </si>
+  <si>
+    <t>Travis Binen</t>
+  </si>
+  <si>
     <t>1961/1962</t>
   </si>
   <si>
@@ -43,73 +652,127 @@
     <t>Mike Hitchman</t>
   </si>
   <si>
+    <t>Alex Chalmers</t>
+  </si>
+  <si>
+    <t>Steve Fragiadakis</t>
+  </si>
+  <si>
     <t>1963/1964</t>
   </si>
   <si>
+    <t>Justin Claeys</t>
+  </si>
+  <si>
     <t>John Brazil</t>
   </si>
   <si>
+    <t>Mike Levine</t>
+  </si>
+  <si>
+    <t>Mike Sermone</t>
+  </si>
+  <si>
+    <t>Dave Brittain</t>
+  </si>
+  <si>
+    <t>Brian Nugent</t>
+  </si>
+  <si>
+    <t>Chris Leung</t>
+  </si>
+  <si>
     <t>1964/1965</t>
   </si>
   <si>
     <t>Jim Mayfield</t>
   </si>
   <si>
-    <t>1986/1987</t>
-  </si>
-  <si>
-    <t>1987/1988</t>
-  </si>
-  <si>
-    <t>1988/1989</t>
-  </si>
-  <si>
-    <t>1989/1990</t>
-  </si>
-  <si>
-    <t>1990/1991</t>
-  </si>
-  <si>
-    <t>1991/1992</t>
-  </si>
-  <si>
-    <t>1992/1993</t>
-  </si>
-  <si>
-    <t>1993/1994</t>
+    <t>Joe Scheuermann</t>
+  </si>
+  <si>
+    <t>Kevin Bell</t>
+  </si>
+  <si>
+    <t>Brian Lynch</t>
+  </si>
+  <si>
+    <t>Rusty Dehorn</t>
+  </si>
+  <si>
+    <t>Ross Friedman</t>
+  </si>
+  <si>
+    <t>Marc Schneider</t>
+  </si>
+  <si>
+    <t>Scott Elder</t>
+  </si>
+  <si>
+    <t>Ed Befu</t>
+  </si>
+  <si>
+    <t>Lee Kole</t>
+  </si>
+  <si>
+    <t>Brian Becker</t>
+  </si>
+  <si>
+    <t>Marc Gemassmer</t>
   </si>
   <si>
     <t>1965/1966</t>
   </si>
   <si>
-    <t>1994/1995</t>
+    <t>Ryan Bocks</t>
   </si>
   <si>
     <t>Steve Hanson</t>
   </si>
   <si>
-    <t>1995/1996</t>
+    <t>Brian Hanley</t>
+  </si>
+  <si>
+    <t>Marc Hall</t>
+  </si>
+  <si>
+    <t>Peter Feng</t>
   </si>
   <si>
     <t>1966/1967</t>
   </si>
   <si>
+    <t>Sheldon Chang</t>
+  </si>
+  <si>
+    <t>James Renola</t>
+  </si>
+  <si>
     <t>Scott Landis</t>
   </si>
   <si>
-    <t>1996/1997</t>
+    <t>Brian hanley</t>
+  </si>
+  <si>
+    <t>Mike Janjigian</t>
+  </si>
+  <si>
+    <t>Tom Philbrick</t>
+  </si>
+  <si>
+    <t>Chris Byrer</t>
   </si>
   <si>
     <t>1967/1968</t>
   </si>
   <si>
-    <t>1997/1998</t>
-  </si>
-  <si>
     <t>John Zuercher</t>
   </si>
   <si>
-    <t>1998/1999</t>
+    <t>Sadi Abou Khater</t>
+  </si>
+  <si>
+    <t>Scott Curry</t>
   </si>
   <si>
     <t>1968/1969</t>
@@ -118,109 +781,109 @@
     <t>Scott Loomis</t>
   </si>
   <si>
-    <t>1999/2000</t>
-  </si>
-  <si>
-    <t>Overal Memoral Award</t>
+    <t>Steve Sugimura</t>
+  </si>
+  <si>
+    <t>Ehab Mohsen</t>
+  </si>
+  <si>
+    <t>Chris Rathbun</t>
+  </si>
+  <si>
+    <t>Josh Click</t>
+  </si>
+  <si>
+    <t>Joe Andolina</t>
   </si>
   <si>
     <t>1969/1970</t>
   </si>
   <si>
+    <t>Pat Chiang</t>
+  </si>
+  <si>
     <t>Kent Raley</t>
   </si>
   <si>
-    <t>2000/2001</t>
-  </si>
-  <si>
-    <t>Badminton</t>
-  </si>
-  <si>
-    <t>Baseball</t>
-  </si>
-  <si>
-    <t>Basketball</t>
-  </si>
-  <si>
-    <t>Cross Country</t>
-  </si>
-  <si>
-    <t>2001/2002</t>
-  </si>
-  <si>
-    <t>Football</t>
-  </si>
-  <si>
-    <t>Golf</t>
+    <t>Andy Schneider</t>
+  </si>
+  <si>
+    <t>Terry Markle</t>
+  </si>
+  <si>
+    <t>Dan Svalya</t>
   </si>
   <si>
     <t>1970/1971</t>
   </si>
   <si>
-    <t>Lacrosse</t>
+    <t>Billy Clark</t>
   </si>
   <si>
     <t>JimAinlay</t>
   </si>
   <si>
-    <t>2002/2003</t>
-  </si>
-  <si>
-    <t>Soccer</t>
-  </si>
-  <si>
-    <t>Swimming</t>
+    <t>Lawrence Chan</t>
+  </si>
+  <si>
+    <t>Dave Alexander</t>
+  </si>
+  <si>
+    <t>Jeff Adorador</t>
+  </si>
+  <si>
+    <t>Mike Jessup</t>
   </si>
   <si>
     <t>1971/1972</t>
   </si>
   <si>
-    <t>Tennis</t>
-  </si>
-  <si>
-    <t>Track</t>
-  </si>
-  <si>
-    <t>2003/2004</t>
-  </si>
-  <si>
-    <t>Water Polo</t>
+    <t>Pat Vlaskovits</t>
   </si>
   <si>
     <t>Rick Beatty</t>
   </si>
   <si>
-    <t>Volleyball</t>
-  </si>
-  <si>
-    <t>2004/2005</t>
-  </si>
-  <si>
-    <t>Wrestling</t>
-  </si>
-  <si>
-    <t>2005/2006</t>
+    <t>Patrick Chiang</t>
+  </si>
+  <si>
+    <t>Chris Kron</t>
+  </si>
+  <si>
+    <t>Bobby Keller</t>
+  </si>
+  <si>
+    <t>Kyle Goni</t>
+  </si>
+  <si>
+    <t>Dan Garcia</t>
   </si>
   <si>
     <t>1972/1973</t>
   </si>
   <si>
-    <t>2006/2007</t>
-  </si>
-  <si>
-    <t>1975/1976</t>
+    <t>Christian Roth</t>
+  </si>
+  <si>
+    <t>Jaison Carter</t>
   </si>
   <si>
     <t>Doug Ernst</t>
   </si>
   <si>
-    <t>2007/2008</t>
-  </si>
-  <si>
-    <t>2008/2009</t>
-  </si>
-  <si>
-    <t>Tom Kittleson</t>
+    <t>Eugene Min</t>
+  </si>
+  <si>
+    <t>Mike Chapin</t>
+  </si>
+  <si>
+    <t>Jason Folk</t>
+  </si>
+  <si>
+    <t>Brad Landthorn</t>
+  </si>
+  <si>
+    <t>Gabe Calebotta</t>
   </si>
   <si>
     <t>1973/1974</t>
@@ -229,598 +892,610 @@
     <t>Otis Page</t>
   </si>
   <si>
-    <t>2009/2010</t>
-  </si>
-  <si>
-    <t>Nicole Gragnola</t>
-  </si>
-  <si>
-    <t>Scott Graham</t>
+    <t>Steve Oberhauser</t>
+  </si>
+  <si>
+    <t>Brian Webster</t>
+  </si>
+  <si>
+    <t>Brian Chin</t>
+  </si>
+  <si>
+    <t>Jeff Randesi</t>
+  </si>
+  <si>
+    <t>Todd Combellick</t>
   </si>
   <si>
     <t>1974/1975</t>
   </si>
   <si>
-    <t>Mike Dyer</t>
+    <t>Paul Chen</t>
   </si>
   <si>
     <t>Larry Worman</t>
   </si>
   <si>
-    <t>2010/2011</t>
-  </si>
-  <si>
-    <t>Doug Raisch</t>
-  </si>
-  <si>
-    <t>Adrienne Norris</t>
-  </si>
-  <si>
-    <t>Bob Miroyan</t>
-  </si>
-  <si>
-    <t>Andy Rasdal</t>
-  </si>
-  <si>
-    <t>2011/2012</t>
-  </si>
-  <si>
-    <t>Jim Ladd</t>
-  </si>
-  <si>
-    <t>Ailene Nguyen</t>
-  </si>
-  <si>
-    <t>Steve Kingsbury</t>
-  </si>
-  <si>
-    <t>John Kennedy</t>
-  </si>
-  <si>
-    <t>Scott Mathews</t>
-  </si>
-  <si>
-    <t>Kirk Kozlowski</t>
-  </si>
-  <si>
-    <t>1976/1977</t>
+    <t>Simon O'Connell</t>
+  </si>
+  <si>
+    <t>Tim Adams</t>
+  </si>
+  <si>
+    <t>Kyle Cardin</t>
+  </si>
+  <si>
+    <t>Michael Black</t>
+  </si>
+  <si>
+    <t>Hank Nothhaft</t>
+  </si>
+  <si>
+    <t>John Herndon</t>
+  </si>
+  <si>
+    <t>Peter Fabricius</t>
+  </si>
+  <si>
+    <t>Kevin Buskirk</t>
   </si>
   <si>
     <t>Mike Heinrich</t>
   </si>
   <si>
-    <t>Rob Snyder</t>
-  </si>
-  <si>
-    <t>Tom Armstrong</t>
-  </si>
-  <si>
-    <t>1977/1978</t>
-  </si>
-  <si>
-    <t>Steve Bruns</t>
+    <t>Chung Park</t>
+  </si>
+  <si>
+    <t>Alex Lux</t>
+  </si>
+  <si>
+    <t>Patricia Miranda</t>
+  </si>
+  <si>
+    <t>Jason Ng</t>
+  </si>
+  <si>
+    <t>Troy Cardin</t>
   </si>
   <si>
     <t>Ted Rafalovich</t>
   </si>
   <si>
-    <t>Dave Gragnola</t>
-  </si>
-  <si>
-    <t>Dave Escobar</t>
-  </si>
-  <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
-    <t>Charles Kessel</t>
-  </si>
-  <si>
-    <t>Hannah Johnson</t>
-  </si>
-  <si>
-    <t>1978/1979</t>
+    <t>Bret Pahler</t>
+  </si>
+  <si>
+    <t>Matt McKenna</t>
+  </si>
+  <si>
+    <t>Elliott Jones</t>
+  </si>
+  <si>
+    <t>Chipper Martin III</t>
   </si>
   <si>
     <t>Randy Arrillaga</t>
   </si>
   <si>
-    <t>Greg McKenzie</t>
-  </si>
-  <si>
-    <t>2013/2014</t>
-  </si>
-  <si>
-    <t>Greg Lahann</t>
-  </si>
-  <si>
-    <t>Tivoli Sisco</t>
-  </si>
-  <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>Ted Hanson</t>
-  </si>
-  <si>
-    <t>Puck de Roos</t>
-  </si>
-  <si>
-    <t>Mark Chamberlin</t>
-  </si>
-  <si>
-    <t>Craig Johnson</t>
-  </si>
-  <si>
-    <t>Steve Campbell</t>
-  </si>
-  <si>
-    <t>1979/1980</t>
-  </si>
-  <si>
-    <t>Rod Tiffee</t>
-  </si>
-  <si>
-    <t>Lindsay Meggs</t>
-  </si>
-  <si>
-    <t>Mark Graham</t>
-  </si>
-  <si>
-    <t>Brad Breiholz</t>
-  </si>
-  <si>
-    <t>Rich Soergel</t>
-  </si>
-  <si>
-    <t>Dave Dunlap</t>
-  </si>
-  <si>
-    <t>Bob Tobiason</t>
-  </si>
-  <si>
-    <t>1980/1981</t>
-  </si>
-  <si>
-    <t>Rick Donaldson</t>
+    <t xml:space="preserve">Chad Allen </t>
+  </si>
+  <si>
+    <t>Dan O'Connell</t>
+  </si>
+  <si>
+    <t>Wilson Wong</t>
+  </si>
+  <si>
+    <t>Alex Daniels</t>
+  </si>
+  <si>
+    <t>Brady Moran</t>
+  </si>
+  <si>
+    <t>Geoff LaMotte</t>
+  </si>
+  <si>
+    <t>Alex Shoor</t>
+  </si>
+  <si>
+    <t>Daniel Goni</t>
+  </si>
+  <si>
+    <t>Brian Doore</t>
+  </si>
+  <si>
+    <t>Omar Malik</t>
+  </si>
+  <si>
+    <t>Scott Swanbert</t>
+  </si>
+  <si>
+    <t>Jordan Jones</t>
+  </si>
+  <si>
+    <t>Keith Follmar</t>
+  </si>
+  <si>
+    <t>Kelly Mathew</t>
+  </si>
+  <si>
+    <t>John Vartanian</t>
+  </si>
+  <si>
+    <t>Micah Weger</t>
+  </si>
+  <si>
+    <t>Jeff Beyers</t>
+  </si>
+  <si>
+    <t>Bryce Allen</t>
+  </si>
+  <si>
+    <t>Schuler Lovoi</t>
+  </si>
+  <si>
+    <t>Jimmy Chao</t>
   </si>
   <si>
     <t>Jeff Arrillaga</t>
   </si>
   <si>
-    <t>Jeff Lane</t>
-  </si>
-  <si>
-    <t>John OConnell</t>
-  </si>
-  <si>
-    <t>Mark Gyorey</t>
-  </si>
-  <si>
-    <t>Tim Hargrave</t>
-  </si>
-  <si>
-    <t>Robert Tobiason</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>1981/1982</t>
-  </si>
-  <si>
-    <t>Steve Hoag</t>
+    <t>Andrew Bosworth</t>
+  </si>
+  <si>
+    <t>Scott Lewis</t>
+  </si>
+  <si>
+    <t>Warren Wong</t>
+  </si>
+  <si>
+    <t>Michael Charters</t>
+  </si>
+  <si>
+    <t>Caleb Mosley</t>
   </si>
   <si>
     <t>Chris Ryan</t>
   </si>
   <si>
-    <t>Ed healy</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>Charles Sheppard</t>
-  </si>
-  <si>
-    <t>Greg Rodrigues</t>
-  </si>
-  <si>
-    <t>2017/2018</t>
-  </si>
-  <si>
-    <t>1982/1983</t>
+    <t>Mike Mann</t>
+  </si>
+  <si>
+    <t>Jacob Christopherson</t>
+  </si>
+  <si>
+    <t>Michael Teng</t>
+  </si>
+  <si>
+    <t>Lee Blair</t>
+  </si>
+  <si>
+    <t>Karanvir Singh</t>
+  </si>
+  <si>
+    <t>James Cummins</t>
   </si>
   <si>
     <t>Ted Macauley</t>
   </si>
   <si>
-    <t>John de Bennedetti</t>
-  </si>
-  <si>
-    <t>2018/2019</t>
-  </si>
-  <si>
-    <t>Tom Hodge</t>
-  </si>
-  <si>
-    <t>Tim Taylor</t>
-  </si>
-  <si>
-    <t>1983/1984</t>
-  </si>
-  <si>
-    <t>Ted Trouard</t>
-  </si>
-  <si>
-    <t>Kevin perry</t>
-  </si>
-  <si>
-    <t>Scott Theis</t>
+    <t>Guido Graziosi</t>
+  </si>
+  <si>
+    <t>Ori Kawahara</t>
+  </si>
+  <si>
+    <t>Justin Oliver</t>
   </si>
   <si>
     <t>Bill Haselman</t>
   </si>
   <si>
-    <t>Gary Dorff</t>
-  </si>
-  <si>
-    <t>Steve Byrne</t>
-  </si>
-  <si>
-    <t>Greg Wolff</t>
-  </si>
-  <si>
-    <t>Thad Whalen</t>
-  </si>
-  <si>
-    <t>Lee Hold</t>
-  </si>
-  <si>
-    <t>John de Benedetti</t>
-  </si>
-  <si>
-    <t>1984/1985</t>
-  </si>
-  <si>
-    <t>Gary Gatiss</t>
-  </si>
-  <si>
-    <t>Mike Stypula</t>
-  </si>
-  <si>
-    <t>Brian Matteoni</t>
-  </si>
-  <si>
-    <t>Randy Foland</t>
-  </si>
-  <si>
-    <t>1985/1986</t>
-  </si>
-  <si>
-    <t>Jeff Salazar</t>
-  </si>
-  <si>
-    <t>Scott Sutter</t>
-  </si>
-  <si>
-    <t>Paul Ferreira</t>
-  </si>
-  <si>
-    <t>Gary Hilton</t>
-  </si>
-  <si>
-    <t>Elliot jacobson</t>
-  </si>
-  <si>
-    <t>Dave Moore</t>
-  </si>
-  <si>
-    <t>Rusty Shaffer</t>
-  </si>
-  <si>
-    <t>Tony Cannestra</t>
+    <t>C.K. Kaplan</t>
+  </si>
+  <si>
+    <t>Will Kraemer</t>
+  </si>
+  <si>
+    <t>Scott Moran</t>
+  </si>
+  <si>
+    <t>Trevor Adams</t>
+  </si>
+  <si>
+    <t>Justin Lerman</t>
+  </si>
+  <si>
+    <t>Tim Chang</t>
+  </si>
+  <si>
+    <t>David La</t>
+  </si>
+  <si>
+    <t>Kyle Gribi</t>
+  </si>
+  <si>
+    <t>Chad usher</t>
+  </si>
+  <si>
+    <t>Stephen Azzi</t>
+  </si>
+  <si>
+    <t>Buck Wright</t>
   </si>
   <si>
     <t>Jason Krumwiede</t>
   </si>
   <si>
-    <t>Cliff Gustafson</t>
-  </si>
-  <si>
-    <t>Howard Hold</t>
-  </si>
-  <si>
-    <t>Todd Pace</t>
+    <t>Matt Ashburn</t>
+  </si>
+  <si>
+    <t>Jacob Osborne</t>
+  </si>
+  <si>
+    <t>Greg Van Hoesen</t>
+  </si>
+  <si>
+    <t>Matt Widert</t>
+  </si>
+  <si>
+    <t>Matt Allen</t>
+  </si>
+  <si>
+    <t>Yuan Chang</t>
+  </si>
+  <si>
+    <t>Ben Duncan</t>
   </si>
   <si>
     <t>Pat Breitenback</t>
   </si>
   <si>
-    <t>Scott Brown</t>
-  </si>
-  <si>
-    <t>Mike Norcia</t>
-  </si>
-  <si>
-    <t>Craig Isaacson</t>
-  </si>
-  <si>
-    <t>Frank Fletcher</t>
-  </si>
-  <si>
-    <t>Howard hold</t>
-  </si>
-  <si>
-    <t>Dan Edson</t>
-  </si>
-  <si>
-    <t>Jeff Foster</t>
-  </si>
-  <si>
-    <t>David Wood</t>
+    <t>Stphen Azzi</t>
+  </si>
+  <si>
+    <t>Matt Chabrier</t>
+  </si>
+  <si>
+    <t>Ryan Newberry</t>
+  </si>
+  <si>
+    <t>Aron Mitsunaga</t>
+  </si>
+  <si>
+    <t>Steve Surrette</t>
+  </si>
+  <si>
+    <t>Brett Granum</t>
+  </si>
+  <si>
+    <t>Kevin Courtoy</t>
+  </si>
+  <si>
+    <t>Roger Tsai</t>
+  </si>
+  <si>
+    <t>A.J. Kerin</t>
   </si>
   <si>
     <t>T.J. Summers</t>
   </si>
   <si>
-    <t>Mike Giraudo</t>
-  </si>
-  <si>
-    <t>Steffo Mitakides</t>
-  </si>
-  <si>
-    <t>Mike Turner</t>
-  </si>
-  <si>
-    <t>Bob Pacheco</t>
-  </si>
-  <si>
-    <t>Rusty Dehorn</t>
-  </si>
-  <si>
-    <t>Peter Feng</t>
-  </si>
-  <si>
-    <t>Chris Byrer</t>
-  </si>
-  <si>
-    <t>Bruce Hilton</t>
-  </si>
-  <si>
-    <t>Randy Judd</t>
-  </si>
-  <si>
-    <t>Scott Patridge</t>
-  </si>
-  <si>
-    <t>Mike Kibort</t>
-  </si>
-  <si>
-    <t>Peter Nimb</t>
+    <t>Tom Cummins</t>
+  </si>
+  <si>
+    <t>Feff Tu</t>
+  </si>
+  <si>
+    <t>Jeff Lyu</t>
+  </si>
+  <si>
+    <t>Chris Etterman</t>
+  </si>
+  <si>
+    <t>Hari Iyer</t>
+  </si>
+  <si>
+    <t>Phil Spencer</t>
+  </si>
+  <si>
+    <t>Mike Sabes</t>
+  </si>
+  <si>
+    <t>Frank Tsai</t>
+  </si>
+  <si>
+    <t>Brent Fong</t>
+  </si>
+  <si>
+    <t>Michael Block</t>
+  </si>
+  <si>
+    <t>James Ballingall</t>
+  </si>
+  <si>
+    <t>Brent Walter</t>
+  </si>
+  <si>
+    <t>Spencer Sevilla</t>
+  </si>
+  <si>
+    <t>Scott Darchuk</t>
+  </si>
+  <si>
+    <t>Peter Sclavos</t>
+  </si>
+  <si>
+    <t>Kenneth Douglas</t>
   </si>
   <si>
     <t>Matt Jones</t>
   </si>
   <si>
-    <t>Mike Logan</t>
-  </si>
-  <si>
-    <t>Zane Tabari</t>
-  </si>
-  <si>
-    <t>Kyle Goni</t>
-  </si>
-  <si>
-    <t>John Trummel</t>
-  </si>
-  <si>
-    <t>Doug Golliher</t>
-  </si>
-  <si>
-    <t>Ryan Iwanaga</t>
-  </si>
-  <si>
-    <t>Richard Sheppard</t>
-  </si>
-  <si>
-    <t>Chris Robinson</t>
-  </si>
-  <si>
-    <t>Andy Banks</t>
+    <t>Steven Marinero</t>
+  </si>
+  <si>
+    <t>Neema Haghshenas</t>
+  </si>
+  <si>
+    <t>Albert Chiang</t>
+  </si>
+  <si>
+    <t>Christopher Chin</t>
+  </si>
+  <si>
+    <t>Jeffrey Gast</t>
+  </si>
+  <si>
+    <t>Bo Nielson</t>
+  </si>
+  <si>
+    <t>Kourosh Agahdel</t>
+  </si>
+  <si>
+    <t>Bradley Jacobs</t>
+  </si>
+  <si>
+    <t>Sean Casserly</t>
   </si>
   <si>
     <t>Ken Nickel</t>
   </si>
   <si>
-    <t>Doug Hancock</t>
-  </si>
-  <si>
-    <t>Greg Steinbach</t>
-  </si>
-  <si>
-    <t>Ed Kirk</t>
+    <t>Cameron Bunker</t>
+  </si>
+  <si>
+    <t>Kevin Chan</t>
+  </si>
+  <si>
+    <t>Alexander Lagemann</t>
+  </si>
+  <si>
+    <t>Brad Rollingson</t>
+  </si>
+  <si>
+    <t>Douglas Macklin</t>
   </si>
   <si>
     <t>Davide Goni</t>
   </si>
   <si>
-    <t>John Leckrone</t>
-  </si>
-  <si>
-    <t>Lee Hancock</t>
-  </si>
-  <si>
-    <t>Richard Salazar</t>
-  </si>
-  <si>
-    <t>Michael Black</t>
-  </si>
-  <si>
-    <t>Carl Goedjen</t>
-  </si>
-  <si>
-    <t>Mike Walen</t>
-  </si>
-  <si>
-    <t>Eric Christoferson</t>
-  </si>
-  <si>
-    <t>Steve Vindasius</t>
-  </si>
-  <si>
-    <t>Dave Lambert</t>
-  </si>
-  <si>
     <t>Ryan Bernardo</t>
   </si>
   <si>
-    <t>Greg Ryoyse</t>
-  </si>
-  <si>
-    <t>Scott Hosue</t>
-  </si>
-  <si>
-    <t>Daniel Goni</t>
-  </si>
-  <si>
-    <t>Mike Marlow</t>
-  </si>
-  <si>
-    <t>John Renola</t>
-  </si>
-  <si>
-    <t>Greg Lipton</t>
-  </si>
-  <si>
-    <t>Greg Royse</t>
-  </si>
-  <si>
-    <t>Keith Burnett</t>
-  </si>
-  <si>
-    <t>Andrew Bosworth</t>
-  </si>
-  <si>
-    <t>Tom Adams</t>
-  </si>
-  <si>
-    <t>Aaron Gustafson</t>
+    <t>Brandon Chow</t>
+  </si>
+  <si>
+    <t>Blake Paisley</t>
+  </si>
+  <si>
+    <t>Andrew Capek</t>
+  </si>
+  <si>
+    <t>William Perera</t>
+  </si>
+  <si>
+    <t>Zachary Kowitz</t>
+  </si>
+  <si>
+    <t>Ryan Hinshaw</t>
+  </si>
+  <si>
+    <t>Emerson Lin</t>
+  </si>
+  <si>
+    <t>Myles Hornberger</t>
+  </si>
+  <si>
+    <t>Ryan Stoffers</t>
+  </si>
+  <si>
+    <t>Christian Biederman</t>
   </si>
   <si>
     <t>Jesse Alejandro</t>
   </si>
   <si>
-    <t>Steve Liao</t>
+    <t>Joseph Avery</t>
+  </si>
+  <si>
+    <t>Christina Biederman</t>
+  </si>
+  <si>
+    <t>Kian Banks</t>
+  </si>
+  <si>
+    <t>Michael Guercio</t>
+  </si>
+  <si>
+    <t>Christopher Chung</t>
+  </si>
+  <si>
+    <t>Bradley Murray</t>
+  </si>
+  <si>
+    <t>Timothy Tsai</t>
   </si>
   <si>
     <t>AJ Weitsman</t>
   </si>
   <si>
-    <t>John Devine</t>
-  </si>
-  <si>
-    <t>Dave Schwartz</t>
-  </si>
-  <si>
-    <t>John Denery</t>
-  </si>
-  <si>
-    <t>Brian Gurney</t>
-  </si>
-  <si>
-    <t>Tyson Draeger</t>
-  </si>
-  <si>
-    <t>Greg Van Hoesen</t>
-  </si>
-  <si>
-    <t>Jim Elliott</t>
-  </si>
-  <si>
-    <t>Craig Tammel</t>
-  </si>
-  <si>
-    <t>Matt Wilson</t>
+    <t>Nickan Mortazzavi</t>
+  </si>
+  <si>
+    <t>Nathan Nguyen</t>
+  </si>
+  <si>
+    <t>Vincent Carstens</t>
+  </si>
+  <si>
+    <t>Grant Thomas</t>
+  </si>
+  <si>
+    <t>Andrew Johnson</t>
+  </si>
+  <si>
+    <t>Patrick Lee</t>
+  </si>
+  <si>
+    <t>Sean Ashe</t>
+  </si>
+  <si>
+    <t>Kyle Borch</t>
+  </si>
+  <si>
+    <t>Michael McGinnis</t>
+  </si>
+  <si>
+    <t>Trevor Teerlink</t>
   </si>
   <si>
     <t>Chris Hrnberger</t>
   </si>
   <si>
-    <t>Peter Newton</t>
-  </si>
-  <si>
-    <t>David Ansnes</t>
+    <t>Kevin Yao</t>
+  </si>
+  <si>
+    <t>Alan Yen</t>
+  </si>
+  <si>
+    <t>Gregory Johnson</t>
+  </si>
+  <si>
+    <t>Gavin Chu</t>
+  </si>
+  <si>
+    <t>James Reed</t>
   </si>
   <si>
     <t>Daniel Wallace</t>
   </si>
   <si>
-    <t>Keith tokar</t>
-  </si>
-  <si>
-    <t>Curtis Kanazawa</t>
-  </si>
-  <si>
-    <t>Jeff Vierra</t>
-  </si>
-  <si>
-    <t>David Martin</t>
-  </si>
-  <si>
-    <t>Brian Thompson</t>
-  </si>
-  <si>
-    <t>Said Kordestani</t>
-  </si>
-  <si>
-    <t>Frazier Hubbard</t>
-  </si>
-  <si>
-    <t>Mike Burnett</t>
-  </si>
-  <si>
-    <t>Jeff Lawler</t>
-  </si>
-  <si>
-    <t>Geoff Spencer</t>
-  </si>
-  <si>
-    <t>Sam Moore</t>
-  </si>
-  <si>
-    <t>Ed Owen</t>
-  </si>
-  <si>
-    <t>Christian Saucedo</t>
-  </si>
-  <si>
-    <t>Grant Thomas</t>
-  </si>
-  <si>
-    <t>Craig Dooley</t>
-  </si>
-  <si>
-    <t>Travis Binen</t>
+    <t>Alex Chan</t>
+  </si>
+  <si>
+    <t>Kyle Fukui</t>
+  </si>
+  <si>
+    <t>Richard Wilson</t>
+  </si>
+  <si>
+    <t>Ted Wang</t>
+  </si>
+  <si>
+    <t>Adam Hinshaw</t>
+  </si>
+  <si>
+    <t>Nikhil Jayashankar</t>
+  </si>
+  <si>
+    <t>Andrew Wong</t>
   </si>
   <si>
     <t>Timothy Rollinson</t>
   </si>
   <si>
+    <t>Garrett Huening</t>
+  </si>
+  <si>
+    <t>Christopher Burse</t>
+  </si>
+  <si>
+    <t>Eric Van Noorden</t>
+  </si>
+  <si>
+    <t>Austin Firth</t>
+  </si>
+  <si>
+    <t>Brandon Pak</t>
+  </si>
+  <si>
+    <t>Simon Steinfeld</t>
+  </si>
+  <si>
+    <t>Manish Raghavan</t>
+  </si>
+  <si>
+    <t>Ian Burns</t>
+  </si>
+  <si>
     <t>Mitchell Casas</t>
   </si>
   <si>
+    <t>Tyler Borch</t>
+  </si>
+  <si>
+    <t>Alfred Murabito</t>
+  </si>
+  <si>
+    <t>Steven Berman</t>
+  </si>
+  <si>
+    <t>Hayden Mitchell</t>
+  </si>
+  <si>
+    <t>Kyle Dozier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keaton Matusich </t>
+  </si>
+  <si>
+    <t>Michael Lee</t>
+  </si>
+  <si>
+    <t>Deepak Ravikumar</t>
+  </si>
+  <si>
+    <t>Paul Jung</t>
+  </si>
+  <si>
+    <t>Erik Martin</t>
+  </si>
+  <si>
+    <t>Henry Wei</t>
+  </si>
+  <si>
+    <t>William Guy</t>
+  </si>
+  <si>
+    <t>Matthew Lee</t>
+  </si>
+  <si>
+    <t>Derek Sun</t>
+  </si>
+  <si>
+    <t>Thomas Alexander</t>
+  </si>
+  <si>
     <t>Troy Doles</t>
   </si>
   <si>
-    <t>Kyle Dozier</t>
-  </si>
-  <si>
-    <t>William Guy</t>
-  </si>
-  <si>
-    <t>Alex Chalmers</t>
+    <t>Andrew Bryan</t>
+  </si>
+  <si>
+    <t>Jonathan Walters</t>
+  </si>
+  <si>
+    <t>Christian Galvin</t>
   </si>
   <si>
     <t>Joseph Medeiros</t>
@@ -829,693 +1504,252 @@
     <t>Steven Sum</t>
   </si>
   <si>
-    <t>Steve Fragiadakis</t>
-  </si>
-  <si>
-    <t>Justin Claeys</t>
-  </si>
-  <si>
-    <t>Mike Levine</t>
-  </si>
-  <si>
-    <t>Mike Sermone</t>
-  </si>
-  <si>
-    <t>Dave Brittain</t>
-  </si>
-  <si>
-    <t>Brian Nugent</t>
-  </si>
-  <si>
-    <t>Chris Leung</t>
-  </si>
-  <si>
-    <t>Joe Scheuermann</t>
-  </si>
-  <si>
-    <t>Kevin Bell</t>
-  </si>
-  <si>
-    <t>Brian Lynch</t>
-  </si>
-  <si>
-    <t>Ross Friedman</t>
-  </si>
-  <si>
-    <t>Marc Schneider</t>
-  </si>
-  <si>
-    <t>Scott Elder</t>
-  </si>
-  <si>
-    <t>Ed Befu</t>
-  </si>
-  <si>
-    <t>Lee Kole</t>
-  </si>
-  <si>
-    <t>Brian Becker</t>
-  </si>
-  <si>
-    <t>Marc Gemassmer</t>
-  </si>
-  <si>
-    <t>Ryan Bocks</t>
-  </si>
-  <si>
-    <t>Brian Hanley</t>
-  </si>
-  <si>
-    <t>Marc Hall</t>
-  </si>
-  <si>
-    <t>Sheldon Chang</t>
-  </si>
-  <si>
-    <t>James Renola</t>
-  </si>
-  <si>
-    <t>Brian hanley</t>
-  </si>
-  <si>
-    <t>Mike Janjigian</t>
-  </si>
-  <si>
-    <t>Tom Philbrick</t>
-  </si>
-  <si>
-    <t>Sadi Abou Khater</t>
-  </si>
-  <si>
-    <t>Scott Curry</t>
-  </si>
-  <si>
-    <t>Steve Sugimura</t>
-  </si>
-  <si>
-    <t>Ehab Mohsen</t>
-  </si>
-  <si>
-    <t>Chris Rathbun</t>
-  </si>
-  <si>
-    <t>Josh Click</t>
-  </si>
-  <si>
-    <t>Joe Andolina</t>
-  </si>
-  <si>
-    <t>Pat Chiang</t>
-  </si>
-  <si>
-    <t>Andy Schneider</t>
-  </si>
-  <si>
-    <t>Terry Markle</t>
-  </si>
-  <si>
-    <t>Dan Svalya</t>
-  </si>
-  <si>
-    <t>Billy Clark</t>
-  </si>
-  <si>
-    <t>Lawrence Chan</t>
-  </si>
-  <si>
-    <t>Dave Alexander</t>
-  </si>
-  <si>
-    <t>Jeff Adorador</t>
-  </si>
-  <si>
-    <t>Mike Jessup</t>
-  </si>
-  <si>
-    <t>Pat Vlaskovits</t>
-  </si>
-  <si>
-    <t>Patrick Chiang</t>
-  </si>
-  <si>
-    <t>Chris Kron</t>
-  </si>
-  <si>
-    <t>Bobby Keller</t>
-  </si>
-  <si>
-    <t>Dan Garcia</t>
-  </si>
-  <si>
-    <t>Christian Roth</t>
-  </si>
-  <si>
-    <t>Jaison Carter</t>
-  </si>
-  <si>
-    <t>Eugene Min</t>
-  </si>
-  <si>
-    <t>Mike Chapin</t>
-  </si>
-  <si>
-    <t>Jason Folk</t>
-  </si>
-  <si>
-    <t>Brad Landthorn</t>
-  </si>
-  <si>
-    <t>Gabe Calebotta</t>
-  </si>
-  <si>
-    <t>Steve Oberhauser</t>
-  </si>
-  <si>
-    <t>Brian Webster</t>
-  </si>
-  <si>
-    <t>Brian Chin</t>
-  </si>
-  <si>
-    <t>Jeff Randesi</t>
-  </si>
-  <si>
-    <t>Todd Combellick</t>
-  </si>
-  <si>
-    <t>Paul Chen</t>
-  </si>
-  <si>
-    <t>Simon O'Connell</t>
-  </si>
-  <si>
-    <t>Tim Adams</t>
-  </si>
-  <si>
-    <t>Kyle Cardin</t>
-  </si>
-  <si>
-    <t>Hank Nothhaft</t>
-  </si>
-  <si>
-    <t>John Herndon</t>
-  </si>
-  <si>
-    <t>Peter Fabricius</t>
-  </si>
-  <si>
-    <t>Kevin Buskirk</t>
-  </si>
-  <si>
-    <t>Chung Park</t>
-  </si>
-  <si>
-    <t>Alex Lux</t>
-  </si>
-  <si>
-    <t>Patricia Miranda</t>
-  </si>
-  <si>
-    <t>Jason Ng</t>
-  </si>
-  <si>
-    <t>Troy Cardin</t>
-  </si>
-  <si>
-    <t>Bret Pahler</t>
-  </si>
-  <si>
-    <t>Matt McKenna</t>
-  </si>
-  <si>
-    <t>Elliott Jones</t>
-  </si>
-  <si>
-    <t>Chipper Martin III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad Allen </t>
-  </si>
-  <si>
-    <t>Dan O'Connell</t>
-  </si>
-  <si>
-    <t>Wilson Wong</t>
-  </si>
-  <si>
-    <t>Alex Daniels</t>
-  </si>
-  <si>
-    <t>Brady Moran</t>
-  </si>
-  <si>
-    <t>Geoff LaMotte</t>
-  </si>
-  <si>
-    <t>Alex Shoor</t>
-  </si>
-  <si>
-    <t>Brian Doore</t>
-  </si>
-  <si>
-    <t>Omar Malik</t>
-  </si>
-  <si>
-    <t>Scott Swanbert</t>
-  </si>
-  <si>
-    <t>Jordan Jones</t>
-  </si>
-  <si>
-    <t>Keith Follmar</t>
-  </si>
-  <si>
-    <t>Kelly Mathew</t>
-  </si>
-  <si>
-    <t>John Vartanian</t>
-  </si>
-  <si>
-    <t>Micah Weger</t>
-  </si>
-  <si>
-    <t>Jeff Beyers</t>
-  </si>
-  <si>
-    <t>Bryce Allen</t>
-  </si>
-  <si>
-    <t>Schuler Lovoi</t>
-  </si>
-  <si>
-    <t>Jimmy Chao</t>
-  </si>
-  <si>
-    <t>Scott Lewis</t>
-  </si>
-  <si>
-    <t>Warren Wong</t>
-  </si>
-  <si>
-    <t>Michael Charters</t>
-  </si>
-  <si>
-    <t>Caleb Mosley</t>
-  </si>
-  <si>
-    <t>Mike Mann</t>
-  </si>
-  <si>
-    <t>Jacob Christopherson</t>
-  </si>
-  <si>
-    <t>Michael Teng</t>
-  </si>
-  <si>
-    <t>Lee Blair</t>
-  </si>
-  <si>
-    <t>Karanvir Singh</t>
-  </si>
-  <si>
-    <t>James Cummins</t>
-  </si>
-  <si>
-    <t>Guido Graziosi</t>
-  </si>
-  <si>
-    <t>Ori Kawahara</t>
-  </si>
-  <si>
-    <t>Justin Oliver</t>
-  </si>
-  <si>
-    <t>C.K. Kaplan</t>
-  </si>
-  <si>
-    <t>Will Kraemer</t>
-  </si>
-  <si>
-    <t>Scott Moran</t>
-  </si>
-  <si>
-    <t>Trevor Adams</t>
-  </si>
-  <si>
-    <t>Justin Lerman</t>
-  </si>
-  <si>
-    <t>Tim Chang</t>
-  </si>
-  <si>
-    <t>David La</t>
-  </si>
-  <si>
-    <t>Kyle Gribi</t>
-  </si>
-  <si>
-    <t>Chad usher</t>
-  </si>
-  <si>
-    <t>Stephen Azzi</t>
-  </si>
-  <si>
-    <t>Buck Wright</t>
-  </si>
-  <si>
-    <t>Matt Ashburn</t>
-  </si>
-  <si>
-    <t>Jacob Osborne</t>
-  </si>
-  <si>
-    <t>Matt Widert</t>
-  </si>
-  <si>
-    <t>Matt Allen</t>
-  </si>
-  <si>
-    <t>Yuan Chang</t>
-  </si>
-  <si>
-    <t>Ben Duncan</t>
-  </si>
-  <si>
-    <t>Stphen Azzi</t>
-  </si>
-  <si>
-    <t>Matt Chabrier</t>
-  </si>
-  <si>
-    <t>Ryan Newberry</t>
-  </si>
-  <si>
-    <t>Aron Mitsunaga</t>
-  </si>
-  <si>
-    <t>Steve Surrette</t>
-  </si>
-  <si>
-    <t>Brett Granum</t>
-  </si>
-  <si>
-    <t>Kevin Courtoy</t>
-  </si>
-  <si>
-    <t>Roger Tsai</t>
-  </si>
-  <si>
-    <t>A.J. Kerin</t>
-  </si>
-  <si>
-    <t>Tom Cummins</t>
-  </si>
-  <si>
-    <t>Feff Tu</t>
-  </si>
-  <si>
-    <t>Jeff Lyu</t>
-  </si>
-  <si>
-    <t>Chris Etterman</t>
-  </si>
-  <si>
-    <t>Hari Iyer</t>
-  </si>
-  <si>
-    <t>Phil Spencer</t>
-  </si>
-  <si>
-    <t>Mike Sabes</t>
-  </si>
-  <si>
-    <t>Frank Tsai</t>
-  </si>
-  <si>
-    <t>Brent Fong</t>
-  </si>
-  <si>
-    <t>Michael Block</t>
-  </si>
-  <si>
-    <t>James Ballingall</t>
-  </si>
-  <si>
-    <t>Brent Walter</t>
-  </si>
-  <si>
-    <t>Spencer Sevilla</t>
-  </si>
-  <si>
-    <t>Scott Darchuk</t>
-  </si>
-  <si>
-    <t>Peter Sclavos</t>
-  </si>
-  <si>
-    <t>Kenneth Douglas</t>
-  </si>
-  <si>
-    <t>Steven Marinero</t>
-  </si>
-  <si>
-    <t>Neema Haghshenas</t>
-  </si>
-  <si>
-    <t>Albert Chiang</t>
-  </si>
-  <si>
-    <t>Christopher Chin</t>
-  </si>
-  <si>
-    <t>Jeffrey Gast</t>
-  </si>
-  <si>
-    <t>Bo Nielson</t>
-  </si>
-  <si>
-    <t>Kourosh Agahdel</t>
-  </si>
-  <si>
-    <t>Bradley Jacobs</t>
-  </si>
-  <si>
-    <t>Sean Casserly</t>
-  </si>
-  <si>
-    <t>Cameron Bunker</t>
-  </si>
-  <si>
-    <t>Kevin Chan</t>
-  </si>
-  <si>
-    <t>Alexander Lagemann</t>
-  </si>
-  <si>
-    <t>Brad Rollingson</t>
-  </si>
-  <si>
-    <t>Douglas Macklin</t>
-  </si>
-  <si>
-    <t>Brandon Chow</t>
-  </si>
-  <si>
-    <t>Blake Paisley</t>
-  </si>
-  <si>
-    <t>Andrew Capek</t>
-  </si>
-  <si>
-    <t>William Perera</t>
-  </si>
-  <si>
-    <t>Zachary Kowitz</t>
-  </si>
-  <si>
-    <t>Ryan Hinshaw</t>
-  </si>
-  <si>
-    <t>Emerson Lin</t>
-  </si>
-  <si>
-    <t>Myles Hornberger</t>
-  </si>
-  <si>
-    <t>Ryan Stoffers</t>
-  </si>
-  <si>
-    <t>Christian Biederman</t>
-  </si>
-  <si>
-    <t>Joseph Avery</t>
-  </si>
-  <si>
-    <t>Christina Biederman</t>
-  </si>
-  <si>
-    <t>Kian Banks</t>
-  </si>
-  <si>
-    <t>Michael Guercio</t>
-  </si>
-  <si>
-    <t>Christopher Chung</t>
-  </si>
-  <si>
-    <t>Bradley Murray</t>
-  </si>
-  <si>
-    <t>Timothy Tsai</t>
-  </si>
-  <si>
-    <t>Nickan Mortazzavi</t>
-  </si>
-  <si>
-    <t>Nathan Nguyen</t>
-  </si>
-  <si>
-    <t>Vincent Carstens</t>
-  </si>
-  <si>
-    <t>Andrew Johnson</t>
-  </si>
-  <si>
-    <t>Patrick Lee</t>
-  </si>
-  <si>
-    <t>Sean Ashe</t>
-  </si>
-  <si>
-    <t>Kyle Borch</t>
-  </si>
-  <si>
-    <t>Michael McGinnis</t>
-  </si>
-  <si>
-    <t>Trevor Teerlink</t>
-  </si>
-  <si>
-    <t>Kevin Yao</t>
-  </si>
-  <si>
-    <t>Alan Yen</t>
-  </si>
-  <si>
-    <t>Gregory Johnson</t>
-  </si>
-  <si>
-    <t>Gavin Chu</t>
-  </si>
-  <si>
-    <t>James Reed</t>
-  </si>
-  <si>
-    <t>Alex Chan</t>
-  </si>
-  <si>
-    <t>Kyle Fukui</t>
-  </si>
-  <si>
-    <t>Richard Wilson</t>
-  </si>
-  <si>
-    <t>Ted Wang</t>
-  </si>
-  <si>
-    <t>Adam Hinshaw</t>
-  </si>
-  <si>
-    <t>Nikhil Jayashankar</t>
-  </si>
-  <si>
-    <t>Andrew Wong</t>
-  </si>
-  <si>
-    <t>Garrett Huening</t>
-  </si>
-  <si>
-    <t>Christopher Burse</t>
-  </si>
-  <si>
-    <t>Eric Van Noorden</t>
-  </si>
-  <si>
-    <t>Austin Firth</t>
-  </si>
-  <si>
-    <t>Brandon Pak</t>
-  </si>
-  <si>
-    <t>Simon Steinfeld</t>
-  </si>
-  <si>
-    <t>Manish Raghavan</t>
-  </si>
-  <si>
-    <t>Ian Burns</t>
-  </si>
-  <si>
-    <t>Tyler Borch</t>
-  </si>
-  <si>
-    <t>Alfred Murabito</t>
-  </si>
-  <si>
-    <t>Steven Berman</t>
-  </si>
-  <si>
-    <t>Hayden Mitchell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keaton Matusich </t>
-  </si>
-  <si>
-    <t>Michael Lee</t>
-  </si>
-  <si>
-    <t>Deepak Ravikumar</t>
-  </si>
-  <si>
-    <t>Paul Jung</t>
-  </si>
-  <si>
-    <t>Erik Martin</t>
-  </si>
-  <si>
-    <t>Henry Wei</t>
-  </si>
-  <si>
-    <t>Matthew Lee</t>
-  </si>
-  <si>
-    <t>Derek Sun</t>
-  </si>
-  <si>
-    <t>Thomas Alexander</t>
-  </si>
-  <si>
-    <t>Andrew Bryan</t>
-  </si>
-  <si>
-    <t>Jonathan Walters</t>
-  </si>
-  <si>
-    <t>Christian Galvin</t>
+    <t>Anthony Capek</t>
+  </si>
+  <si>
+    <t>Cameron Borch</t>
+  </si>
+  <si>
+    <t>Sanjay Kaliyur</t>
+  </si>
+  <si>
+    <t>Clark Wang</t>
+  </si>
+  <si>
+    <t>Stephen Cho</t>
+  </si>
+  <si>
+    <t>Kevin Tran</t>
+  </si>
+  <si>
+    <t>Graham Grant</t>
+  </si>
+  <si>
+    <t>Clark Rothenberg</t>
+  </si>
+  <si>
+    <t>Michael Cole</t>
+  </si>
+  <si>
+    <t>Maximillian Chang</t>
+  </si>
+  <si>
+    <t>Andrew Harter</t>
+  </si>
+  <si>
+    <t>Arman Vaziri</t>
+  </si>
+  <si>
+    <t>Connor Peebles</t>
+  </si>
+  <si>
+    <t>Cian Costello</t>
+  </si>
+  <si>
+    <t>Winston Vo</t>
+  </si>
+  <si>
+    <t>Neel Bedekar</t>
+  </si>
+  <si>
+    <t>Christian Murabito</t>
   </si>
   <si>
     <t>Overall Memorial Award</t>
   </si>
   <si>
+    <t>Field Hockey</t>
+  </si>
+  <si>
+    <t>Softball</t>
+  </si>
+  <si>
+    <t>Allison Buchanan</t>
+  </si>
+  <si>
+    <t>Jasmine Lee</t>
+  </si>
+  <si>
+    <t>Amber Arroyo</t>
+  </si>
+  <si>
+    <t>Jennifer Vannier</t>
+  </si>
+  <si>
+    <t>Kathryn Nobles</t>
+  </si>
+  <si>
+    <t>Uttara Sivaram</t>
+  </si>
+  <si>
+    <t>Vanessa Block</t>
+  </si>
+  <si>
+    <t>Megan Brading</t>
+  </si>
+  <si>
+    <t>Debra Lin</t>
+  </si>
+  <si>
+    <t>Catherine Nguyen</t>
+  </si>
+  <si>
+    <t>Parisa Mirzadegan</t>
+  </si>
+  <si>
+    <t>Hanna Neilson</t>
+  </si>
+  <si>
+    <t>McKenzie Crase</t>
+  </si>
+  <si>
+    <t>Annahita Ashe</t>
+  </si>
+  <si>
+    <t>Angie Chang</t>
+  </si>
+  <si>
+    <t>Campbell Oreglia</t>
+  </si>
+  <si>
+    <t>Emily Williams</t>
+  </si>
+  <si>
+    <t>Karilyn Clark</t>
+  </si>
+  <si>
+    <t>Abigail Williams</t>
+  </si>
+  <si>
+    <t>Natalie Cheung</t>
+  </si>
+  <si>
+    <t>Crystal Yen</t>
+  </si>
+  <si>
+    <t>Talia Sisco</t>
+  </si>
+  <si>
+    <t>Alison Knysh</t>
+  </si>
+  <si>
+    <t>Alyson Nilan-Axline</t>
+  </si>
+  <si>
+    <t>Lauren Chu</t>
+  </si>
+  <si>
+    <t>Courtney Schlossareck</t>
+  </si>
+  <si>
+    <t>Jennifer Miller</t>
+  </si>
+  <si>
+    <t>Amanda Schwartz</t>
+  </si>
+  <si>
+    <t>Stephanie Chen</t>
+  </si>
+  <si>
+    <t>Niharika Bedekar</t>
+  </si>
+  <si>
+    <t>Bianca Zakerani</t>
+  </si>
+  <si>
+    <t>Jennie Werner</t>
+  </si>
+  <si>
+    <t>Allison Chang</t>
+  </si>
+  <si>
+    <t>Dharini Ramaswamy</t>
+  </si>
+  <si>
+    <t>Casey Takahashi</t>
+  </si>
+  <si>
+    <t>Lena Jewler</t>
+  </si>
+  <si>
+    <t>Stephanie Ho</t>
+  </si>
+  <si>
+    <t>Hera Tang</t>
+  </si>
+  <si>
+    <t>Jane Marie Heyman</t>
+  </si>
+  <si>
+    <t>Usha Raman</t>
+  </si>
+  <si>
+    <t>Julia Sakamoto</t>
+  </si>
+  <si>
+    <t>Katelyn Mollahan</t>
+  </si>
+  <si>
+    <t>Nikki de Roos</t>
+  </si>
+  <si>
+    <t>Lindsay Webster</t>
+  </si>
+  <si>
+    <t>Madison Gress</t>
+  </si>
+  <si>
+    <t>Audrey Sun</t>
+  </si>
+  <si>
+    <t>Mikayla Davis</t>
+  </si>
+  <si>
+    <t>Christine Schlossareck</t>
+  </si>
+  <si>
+    <t>Bianca Oliveri</t>
+  </si>
+  <si>
+    <t>Vivian Roan</t>
+  </si>
+  <si>
+    <t>Christina Crolla</t>
+  </si>
+  <si>
+    <t>Anisha Nagarajan</t>
+  </si>
+  <si>
+    <t>Analissa Ruff</t>
+  </si>
+  <si>
+    <t>Yayla Sezginer</t>
+  </si>
+  <si>
+    <t>Smita Sabada</t>
+  </si>
+  <si>
+    <t>Sara Parden</t>
+  </si>
+  <si>
+    <t>Ally Doles</t>
+  </si>
+  <si>
+    <t>Harrison Hyde</t>
+  </si>
+  <si>
+    <t>Maggy Liu</t>
+  </si>
+  <si>
+    <t>Nikhil Goel</t>
+  </si>
+  <si>
+    <t>Joshua Pi</t>
+  </si>
+  <si>
     <t>Ashwin Siripurapu</t>
   </si>
   <si>
-    <t>Field Hockey</t>
-  </si>
-  <si>
-    <t>Softball</t>
-  </si>
-  <si>
     <t>Anshu Siripurapu</t>
   </si>
   <si>
@@ -1528,250 +1762,16 @@
     <t>Matthew Nobles</t>
   </si>
   <si>
-    <t>Anthony Capek</t>
-  </si>
-  <si>
-    <t>Cameron Borch</t>
-  </si>
-  <si>
-    <t>Sanjay Kaliyur</t>
-  </si>
-  <si>
-    <t>Clark Wang</t>
-  </si>
-  <si>
-    <t>Stephen Cho</t>
-  </si>
-  <si>
-    <t>Kevin Tran</t>
-  </si>
-  <si>
-    <t>Graham Grant</t>
-  </si>
-  <si>
-    <t>Clark Rothenberg</t>
-  </si>
-  <si>
-    <t>Michael Cole</t>
-  </si>
-  <si>
-    <t>Maximillian Chang</t>
-  </si>
-  <si>
-    <t>Andrew Harter</t>
-  </si>
-  <si>
-    <t>Arman Vaziri</t>
-  </si>
-  <si>
-    <t>Connor Peebles</t>
-  </si>
-  <si>
-    <t>Cian Costello</t>
-  </si>
-  <si>
-    <t>Winston Vo</t>
-  </si>
-  <si>
-    <t>Neel Bedekar</t>
-  </si>
-  <si>
-    <t>Christian Murabito</t>
-  </si>
-  <si>
-    <t>Allison Buchanan</t>
-  </si>
-  <si>
-    <t>Jasmine Lee</t>
-  </si>
-  <si>
-    <t>Amber Arroyo</t>
-  </si>
-  <si>
-    <t>Jennifer Vannier</t>
-  </si>
-  <si>
-    <t>Kathryn Nobles</t>
-  </si>
-  <si>
-    <t>Uttara Sivaram</t>
-  </si>
-  <si>
-    <t>Vanessa Block</t>
-  </si>
-  <si>
-    <t>Megan Brading</t>
-  </si>
-  <si>
-    <t>Debra Lin</t>
-  </si>
-  <si>
-    <t>Catherine Nguyen</t>
-  </si>
-  <si>
-    <t>Parisa Mirzadegan</t>
-  </si>
-  <si>
-    <t>Hanna Neilson</t>
-  </si>
-  <si>
-    <t>McKenzie Crase</t>
-  </si>
-  <si>
-    <t>Annahita Ashe</t>
-  </si>
-  <si>
-    <t>Angie Chang</t>
-  </si>
-  <si>
-    <t>Campbell Oreglia</t>
-  </si>
-  <si>
-    <t>Emily Williams</t>
-  </si>
-  <si>
-    <t>Karilyn Clark</t>
-  </si>
-  <si>
-    <t>Abigail Williams</t>
-  </si>
-  <si>
-    <t>Natalie Cheung</t>
-  </si>
-  <si>
-    <t>Crystal Yen</t>
-  </si>
-  <si>
-    <t>Talia Sisco</t>
-  </si>
-  <si>
-    <t>Alison Knysh</t>
-  </si>
-  <si>
-    <t>Alyson Nilan-Axline</t>
-  </si>
-  <si>
-    <t>Lauren Chu</t>
-  </si>
-  <si>
-    <t>Courtney Schlossareck</t>
-  </si>
-  <si>
-    <t>Jennifer Miller</t>
-  </si>
-  <si>
-    <t>Amanda Schwartz</t>
-  </si>
-  <si>
-    <t>Stephanie Chen</t>
-  </si>
-  <si>
-    <t>Niharika Bedekar</t>
-  </si>
-  <si>
-    <t>Bianca Zakerani</t>
-  </si>
-  <si>
-    <t>Jennie Werner</t>
-  </si>
-  <si>
-    <t>Allison Chang</t>
-  </si>
-  <si>
-    <t>Dharini Ramaswamy</t>
-  </si>
-  <si>
-    <t>Casey Takahashi</t>
-  </si>
-  <si>
-    <t>Lena Jewler</t>
-  </si>
-  <si>
-    <t>Stephanie Ho</t>
-  </si>
-  <si>
-    <t>Hera Tang</t>
-  </si>
-  <si>
-    <t>Jane Marie Heyman</t>
-  </si>
-  <si>
-    <t>Usha Raman</t>
-  </si>
-  <si>
-    <t>Julia Sakamoto</t>
-  </si>
-  <si>
-    <t>Katelyn Mollahan</t>
-  </si>
-  <si>
-    <t>Nikki de Roos</t>
-  </si>
-  <si>
-    <t>Lindsay Webster</t>
-  </si>
-  <si>
-    <t>Madison Gress</t>
-  </si>
-  <si>
-    <t>Audrey Sun</t>
-  </si>
-  <si>
-    <t>Mikayla Davis</t>
-  </si>
-  <si>
-    <t>Christine Schlossareck</t>
-  </si>
-  <si>
-    <t>Bianca Oliveri</t>
-  </si>
-  <si>
-    <t>Vivian Roan</t>
-  </si>
-  <si>
-    <t>Christina Crolla</t>
-  </si>
-  <si>
-    <t>Anisha Nagarajan</t>
-  </si>
-  <si>
-    <t>Analissa Ruff</t>
-  </si>
-  <si>
-    <t>Yayla Sezginer</t>
-  </si>
-  <si>
-    <t>Smita Sabada</t>
-  </si>
-  <si>
-    <t>Sara Parden</t>
-  </si>
-  <si>
     <t>Lifesaver Award</t>
   </si>
   <si>
-    <t>Ally Doles</t>
-  </si>
-  <si>
-    <t>Harrison Hyde</t>
-  </si>
-  <si>
     <t>Sharon Boyce</t>
   </si>
   <si>
-    <t>Maggy Liu</t>
-  </si>
-  <si>
     <t>Sven Nelson</t>
   </si>
   <si>
-    <t>Nikhil Goel</t>
-  </si>
-  <si>
     <t>Scott Peterson</t>
-  </si>
-  <si>
-    <t>Joshua Pi</t>
   </si>
   <si>
     <t>Patricia Adura-Miranda</t>
@@ -1868,10 +1868,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1905,39 +1905,39 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1993,710 +1993,710 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+        <v>210</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+        <v>215</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>221</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+        <v>234</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+        <v>243</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+        <v>253</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+        <v>261</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+        <v>267</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>51</v>
+        <v>272</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+        <v>274</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>68</v>
+        <v>289</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+        <v>290</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+        <v>298</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+        <v>307</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+        <v>313</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+        <v>318</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+        <v>339</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+        <v>345</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+        <v>352</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+        <v>356</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>12</v>
+      <c r="A30" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+        <v>368</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>13</v>
+      <c r="A31" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+        <v>376</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
-        <v>14</v>
+      <c r="A32" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+        <v>201</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
-        <v>15</v>
+      <c r="A33" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="4"/>
-      <c r="B43" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="4" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="s">
-        <v>140</v>
+      <c r="A63" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2718,243 +2718,243 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>70</v>
+      <c r="A25" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C25" s="3"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>76</v>
+      <c r="A26" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="C26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="7"/>
+      <c r="A27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="5"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="1"/>
+      <c r="A28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="1"/>
+      <c r="A29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="8"/>
+      <c r="A30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="6"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>128</v>
+      <c r="A31" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
-        <v>133</v>
+      <c r="A32" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
-        <v>136</v>
+      <c r="A33" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>140</v>
+      <c r="A34" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2978,1735 +2978,1735 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="B20" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="B22" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="B24" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="B25" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="B30" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="B31" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="B32" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="B33" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="B37" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="B39" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
+      <c r="B40" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="B41" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="P5" s="5" t="s">
+      <c r="B42" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="B43" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="K44" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="L8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="P35" s="5"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="4"/>
-      <c r="B36" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="P36" s="5"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="P43" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="K44" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="N45" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4727,374 +4727,374 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>55</v>
+      <c r="B1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="4"/>
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="4"/>
+      <c r="A3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="4"/>
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="4"/>
+      <c r="A5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="4"/>
+      <c r="A6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="4"/>
+      <c r="A7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="4"/>
+      <c r="A8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="4"/>
+      <c r="A9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="4"/>
+      <c r="A10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="4"/>
+      <c r="A11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>76</v>
+      <c r="A12" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="H12" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="I12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="K12" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="L12" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="M12" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="N12" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="O12" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="K12" s="5" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="E13" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="F13" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="I13" s="10" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="J13" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="K13" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="L13" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="M13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="I13" s="10" t="s">
+      <c r="O13" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J13" s="5" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="D14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N13" s="5" t="s">
+      <c r="F14" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="J14" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="L14" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="M14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="O14" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="K14" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="E15" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="N14" s="5" t="s">
+      <c r="F15" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="J15" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="K15" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="L15" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="M15" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
+      <c r="N15" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="O15" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="K15" s="5" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="L15" s="5" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="D17" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="E17" s="1" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
+      <c r="F17" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="G17" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="H17" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="I17" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="J17" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="K17" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="L17" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="M17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>564</v>
+      <c r="O17" s="1" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4"/>
+      <c r="A18" s="2"/>
       <c r="B18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="4"/>
+      <c r="A19" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="4"/>
+      <c r="A20" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="4"/>
+      <c r="A21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="4"/>
+      <c r="A22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5112,191 +5112,191 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="1">
         <v>1986.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <v>1987.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>1988.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>1990.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <v>1991.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>1992.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <v>1993.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="1">
         <v>1994.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="1">
         <v>1995.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="1">
         <v>1996.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5"/>
+      <c r="A13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="5">
+      <c r="A14" s="1">
         <v>1998.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5">
+      <c r="A15" s="1">
         <v>1999.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5">
+      <c r="A16" s="1">
         <v>2000.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <v>2001.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5">
+      <c r="A18" s="1">
         <v>2002.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5">
+      <c r="A19" s="1">
         <v>2003.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5">
+      <c r="A20" s="1">
         <v>2004.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5">
+      <c r="A21" s="1">
         <v>2005.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5">
+      <c r="A22" s="1">
         <v>2006.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5">
+      <c r="A23" s="1">
         <v>2007.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5"/>
+      <c r="A24" s="1"/>
     </row>
     <row r="25">
-      <c r="A25" s="5">
+      <c r="A25" s="1">
         <v>2008.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5">
+      <c r="A26" s="1">
         <v>2009.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5">
+      <c r="A27" s="1">
         <v>2010.0</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>496</v>
+      <c r="B27" s="1" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5">
+      <c r="A28" s="1">
         <v>2011.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5"/>
+      <c r="A29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="5">
+      <c r="A30" s="1">
         <v>2012.0</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>499</v>
+      <c r="B30" s="1" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5">
+      <c r="A31" s="1">
         <v>2013.0</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>500</v>
+      <c r="B31" s="1" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5">
+      <c r="A32" s="1">
         <v>2014.0</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>501</v>
+      <c r="B32" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5">
+      <c r="A33" s="1">
         <v>2015.0</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>502</v>
+      <c r="B33" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>2016.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>2017.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>2018.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>2019.0</v>
       </c>
     </row>
@@ -5316,188 +5316,188 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="1">
         <v>1986.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <v>1987.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>1988.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>1990.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <v>1991.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>1992.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <v>1993.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="1">
         <v>1994.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="1">
         <v>1995.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="1">
         <v>1996.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5"/>
+      <c r="A13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="5">
+      <c r="A14" s="1">
         <v>1998.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5">
+      <c r="A15" s="1">
         <v>1999.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5">
+      <c r="A16" s="1">
         <v>2000.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <v>2001.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5">
+      <c r="A18" s="1">
         <v>2002.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5">
+      <c r="A19" s="1">
         <v>2003.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5">
+      <c r="A20" s="1">
         <v>2004.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5">
+      <c r="A21" s="1">
         <v>2005.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5">
+      <c r="A22" s="1">
         <v>2006.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5">
+      <c r="A23" s="1">
         <v>2007.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5"/>
+      <c r="A24" s="1"/>
     </row>
     <row r="25">
-      <c r="A25" s="5">
+      <c r="A25" s="1">
         <v>2008.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5">
+      <c r="A26" s="1">
         <v>2009.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5">
+      <c r="A27" s="1">
         <v>2010.0</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>577</v>
+      <c r="B27" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5">
+      <c r="A28" s="1">
         <v>2011.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5">
+      <c r="A29" s="1">
         <v>2012.0</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>578</v>
+      <c r="B29" s="1" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5">
+      <c r="A30" s="1">
         <v>2013.0</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>580</v>
+      <c r="B30" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5">
+      <c r="A31" s="1">
         <v>2014.0</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>582</v>
+      <c r="B31" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5">
+      <c r="A32" s="1">
         <v>2015.0</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>584</v>
+      <c r="B32" s="1" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>2016.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>2017.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>2018.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>2019.0</v>
       </c>
     </row>
@@ -5520,17 +5520,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="1">
         <v>1986.0</v>
       </c>
       <c r="B2" s="12"/>
@@ -5538,7 +5538,7 @@
       <c r="D2" s="12"/>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <v>1987.0</v>
       </c>
       <c r="B3" s="12"/>
@@ -5551,7 +5551,7 @@
       <c r="D4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>1988.0</v>
       </c>
       <c r="B5" s="12"/>
@@ -5559,7 +5559,7 @@
       <c r="D5" s="12"/>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>1990.0</v>
       </c>
       <c r="B6" s="12"/>
@@ -5567,7 +5567,7 @@
       <c r="D6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <v>1991.0</v>
       </c>
       <c r="B7" s="12"/>
@@ -5575,7 +5575,7 @@
       <c r="D7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>1992.0</v>
       </c>
       <c r="B8" s="12"/>
@@ -5583,17 +5583,17 @@
       <c r="D8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <v>1993.0</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="1">
         <v>1994.0</v>
       </c>
       <c r="B10" s="12"/>
@@ -5601,27 +5601,27 @@
       <c r="D10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="1">
         <v>1995.0</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="1">
         <v>1996.0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="5">
+      <c r="A13" s="1">
         <v>1997.0</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -5633,7 +5633,7 @@
       <c r="D13" s="12"/>
     </row>
     <row r="14">
-      <c r="A14" s="5">
+      <c r="A14" s="1">
         <v>1998.0</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -5643,7 +5643,7 @@
       <c r="D14" s="12"/>
     </row>
     <row r="15">
-      <c r="A15" s="5">
+      <c r="A15" s="1">
         <v>1999.0</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -5655,7 +5655,7 @@
       <c r="D15" s="12"/>
     </row>
     <row r="16">
-      <c r="A16" s="5">
+      <c r="A16" s="1">
         <v>2000.0</v>
       </c>
       <c r="B16" s="12"/>
@@ -5663,7 +5663,7 @@
       <c r="D16" s="12"/>
     </row>
     <row r="17">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <v>2001.0</v>
       </c>
       <c r="B17" s="12"/>
@@ -5671,7 +5671,7 @@
       <c r="D17" s="12"/>
     </row>
     <row r="18">
-      <c r="A18" s="5">
+      <c r="A18" s="1">
         <v>2002.0</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -5683,21 +5683,21 @@
       <c r="D18" s="12"/>
     </row>
     <row r="19">
-      <c r="A19" s="5">
+      <c r="A19" s="1">
         <v>2003.0</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>591</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5">
+      <c r="A20" s="1">
         <v>2004.0</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -5709,7 +5709,7 @@
       <c r="D20" s="12"/>
     </row>
     <row r="21">
-      <c r="A21" s="5">
+      <c r="A21" s="1">
         <v>2005.0</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -5719,7 +5719,7 @@
       <c r="D21" s="12"/>
     </row>
     <row r="22">
-      <c r="A22" s="5">
+      <c r="A22" s="1">
         <v>2006.0</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -5731,7 +5731,7 @@
       <c r="D22" s="12"/>
     </row>
     <row r="23">
-      <c r="A23" s="5">
+      <c r="A23" s="1">
         <v>2007.0</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -5743,13 +5743,13 @@
       <c r="D23" s="12"/>
     </row>
     <row r="24">
-      <c r="A24" s="5"/>
+      <c r="A24" s="1"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
     <row r="25">
-      <c r="A25" s="5">
+      <c r="A25" s="1">
         <v>2008.0</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -5761,7 +5761,7 @@
       <c r="D25" s="12"/>
     </row>
     <row r="26">
-      <c r="A26" s="5">
+      <c r="A26" s="1">
         <v>2009.0</v>
       </c>
       <c r="B26" s="12"/>
@@ -5769,7 +5769,7 @@
       <c r="D26" s="12"/>
     </row>
     <row r="27">
-      <c r="A27" s="5">
+      <c r="A27" s="1">
         <v>2010.0</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -5781,7 +5781,7 @@
       <c r="D27" s="12"/>
     </row>
     <row r="28">
-      <c r="A28" s="5">
+      <c r="A28" s="1">
         <v>2011.0</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -5793,7 +5793,7 @@
       <c r="D28" s="12"/>
     </row>
     <row r="29">
-      <c r="A29" s="5">
+      <c r="A29" s="1">
         <v>2012.0</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -5803,7 +5803,7 @@
       <c r="D29" s="12"/>
     </row>
     <row r="30">
-      <c r="A30" s="5">
+      <c r="A30" s="1">
         <v>2013.0</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -5815,7 +5815,7 @@
       <c r="D30" s="12"/>
     </row>
     <row r="31">
-      <c r="A31" s="5">
+      <c r="A31" s="1">
         <v>2014.0</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -5825,7 +5825,7 @@
       <c r="D31" s="12"/>
     </row>
     <row r="32">
-      <c r="A32" s="5">
+      <c r="A32" s="1">
         <v>2015.0</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -5839,7 +5839,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>2016.0</v>
       </c>
       <c r="B33" s="12"/>
@@ -5847,7 +5847,7 @@
       <c r="D33" s="12"/>
     </row>
     <row r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>2017.0</v>
       </c>
       <c r="B34" s="12"/>
@@ -5855,7 +5855,7 @@
       <c r="D34" s="12"/>
     </row>
     <row r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>2018.0</v>
       </c>
       <c r="B35" s="12"/>
@@ -5863,7 +5863,7 @@
       <c r="D35" s="12"/>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>2019.0</v>
       </c>
       <c r="B36" s="12"/>

--- a/scripts/shstrophies/data/Mr Torren_s initial data input/Spring Awards/Other Awards.xlsx
+++ b/scripts/shstrophies/data/Mr Torren_s initial data input/Spring Awards/Other Awards.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="614">
   <si>
     <t>Year</t>
   </si>
@@ -73,322 +73,379 @@
     <t>1975/1976</t>
   </si>
   <si>
+    <t>1959/1960</t>
+  </si>
+  <si>
     <t>Tom Kittleson</t>
   </si>
   <si>
+    <t>Scott Graham</t>
+  </si>
+  <si>
+    <t>Mike Dyer</t>
+  </si>
+  <si>
+    <t>Doug Raisch</t>
+  </si>
+  <si>
+    <t>Bob Miroyan</t>
+  </si>
+  <si>
+    <t>Andy Rasdal</t>
+  </si>
+  <si>
+    <t>Jim Ladd</t>
+  </si>
+  <si>
+    <t>John Kennedy</t>
+  </si>
+  <si>
+    <t>Scott Mathews</t>
+  </si>
+  <si>
+    <t>Kirk Kozlowski</t>
+  </si>
+  <si>
+    <t>Steve Kingsbury</t>
+  </si>
+  <si>
+    <t>1976/1977</t>
+  </si>
+  <si>
+    <t>Rob Snyder</t>
+  </si>
+  <si>
+    <t>Tom Armstrong</t>
+  </si>
+  <si>
+    <t>Steve Bruns</t>
+  </si>
+  <si>
+    <t>Dave Gragnola</t>
+  </si>
+  <si>
+    <t>Dave Escobar</t>
+  </si>
+  <si>
+    <t>Charles Kessel</t>
+  </si>
+  <si>
+    <t>Greg McKenzie</t>
+  </si>
+  <si>
+    <t>Greg Lahann</t>
+  </si>
+  <si>
+    <t>1977/1978</t>
+  </si>
+  <si>
+    <t>Ted Hanson</t>
+  </si>
+  <si>
     <t>1987/1988</t>
   </si>
   <si>
+    <t>Mark Chamberlin</t>
+  </si>
+  <si>
+    <t>Craig Johnson</t>
+  </si>
+  <si>
+    <t>Steve Campbell</t>
+  </si>
+  <si>
+    <t>Rod Tiffee</t>
+  </si>
+  <si>
+    <t>Mark Graham</t>
+  </si>
+  <si>
     <t>1988/1989</t>
   </si>
   <si>
+    <t>Brad Breiholz</t>
+  </si>
+  <si>
+    <t>Wayne Brazil</t>
+  </si>
+  <si>
+    <t>Rich Soergel</t>
+  </si>
+  <si>
+    <t>Dave Dunlap</t>
+  </si>
+  <si>
     <t>1989/1990</t>
   </si>
   <si>
-    <t>Scott Graham</t>
+    <t>Bob Tobiason</t>
+  </si>
+  <si>
+    <t>Rick Donaldson</t>
   </si>
   <si>
     <t>1990/1991</t>
   </si>
   <si>
-    <t>Mike Dyer</t>
-  </si>
-  <si>
-    <t>Doug Raisch</t>
-  </si>
-  <si>
-    <t>Bob Miroyan</t>
-  </si>
-  <si>
-    <t>Andy Rasdal</t>
+    <t>1978/1979</t>
+  </si>
+  <si>
+    <t>Jeff Lane</t>
+  </si>
+  <si>
+    <t>1960/1961</t>
+  </si>
+  <si>
+    <t>Hal Shaffer</t>
+  </si>
+  <si>
+    <t>Lindsay Meggs</t>
   </si>
   <si>
     <t>1991/1992</t>
   </si>
   <si>
-    <t>Jim Ladd</t>
-  </si>
-  <si>
-    <t>John Kennedy</t>
-  </si>
-  <si>
-    <t>Scott Mathews</t>
-  </si>
-  <si>
-    <t>Kirk Kozlowski</t>
-  </si>
-  <si>
-    <t>Steve Kingsbury</t>
+    <t>John OConnell</t>
+  </si>
+  <si>
+    <t>Mark Gyorey</t>
+  </si>
+  <si>
+    <t>1961/1962</t>
   </si>
   <si>
     <t>1992/1993</t>
   </si>
   <si>
-    <t>1976/1977</t>
+    <t>Tim Hargrave</t>
+  </si>
+  <si>
+    <t>Robert Tobiason</t>
+  </si>
+  <si>
+    <t>Steve Hoag</t>
   </si>
   <si>
     <t>1993/1994</t>
   </si>
   <si>
-    <t>Rob Snyder</t>
-  </si>
-  <si>
-    <t>Tom Armstrong</t>
-  </si>
-  <si>
-    <t>Steve Bruns</t>
-  </si>
-  <si>
-    <t>Dave Gragnola</t>
-  </si>
-  <si>
-    <t>Dave Escobar</t>
-  </si>
-  <si>
-    <t>Charles Kessel</t>
+    <t>Ed healy</t>
+  </si>
+  <si>
+    <t>1962/1963</t>
+  </si>
+  <si>
+    <t>Charles Sheppard</t>
+  </si>
+  <si>
+    <t>Mike Hitchman</t>
+  </si>
+  <si>
+    <t>Greg Rodrigues</t>
   </si>
   <si>
     <t>1994/1995</t>
   </si>
   <si>
-    <t>Greg McKenzie</t>
-  </si>
-  <si>
-    <t>Greg Lahann</t>
-  </si>
-  <si>
-    <t>1977/1978</t>
+    <t>1979/1980</t>
+  </si>
+  <si>
+    <t>John de Bennedetti</t>
+  </si>
+  <si>
+    <t>1963/1964</t>
   </si>
   <si>
     <t>1995/1996</t>
   </si>
   <si>
-    <t>Ted Hanson</t>
+    <t>John Brazil</t>
+  </si>
+  <si>
+    <t>Tom Hodge</t>
   </si>
   <si>
     <t>1996/1997</t>
   </si>
   <si>
-    <t>Mark Chamberlin</t>
-  </si>
-  <si>
-    <t>Craig Johnson</t>
-  </si>
-  <si>
-    <t>Steve Campbell</t>
+    <t>Tim Taylor</t>
+  </si>
+  <si>
+    <t>Ted Trouard</t>
+  </si>
+  <si>
+    <t>1964/1965</t>
+  </si>
+  <si>
+    <t>Kevin perry</t>
+  </si>
+  <si>
+    <t>Jim Mayfield</t>
+  </si>
+  <si>
+    <t>Scott Theis</t>
   </si>
   <si>
     <t>1997/1998</t>
   </si>
   <si>
-    <t>Rod Tiffee</t>
-  </si>
-  <si>
-    <t>Mark Graham</t>
-  </si>
-  <si>
-    <t>Brad Breiholz</t>
-  </si>
-  <si>
-    <t>Rich Soergel</t>
+    <t>Gary Dorff</t>
+  </si>
+  <si>
+    <t>Steve Byrne</t>
+  </si>
+  <si>
+    <t>Greg Wolff</t>
+  </si>
+  <si>
+    <t>Thad Whalen</t>
   </si>
   <si>
     <t>1998/1999</t>
   </si>
   <si>
-    <t>Dave Dunlap</t>
-  </si>
-  <si>
-    <t>Bob Tobiason</t>
-  </si>
-  <si>
-    <t>Rick Donaldson</t>
+    <t>Lee Hold</t>
+  </si>
+  <si>
+    <t>John de Benedetti</t>
   </si>
   <si>
     <t>1999/2000</t>
   </si>
   <si>
-    <t>1978/1979</t>
-  </si>
-  <si>
-    <t>Jeff Lane</t>
-  </si>
-  <si>
-    <t>Lindsay Meggs</t>
+    <t>1980/1981</t>
+  </si>
+  <si>
+    <t>Mike Stypula</t>
   </si>
   <si>
     <t>2000/2001</t>
   </si>
   <si>
-    <t>John OConnell</t>
-  </si>
-  <si>
-    <t>Mark Gyorey</t>
+    <t>Brian Matteoni</t>
+  </si>
+  <si>
+    <t>Randy Foland</t>
+  </si>
+  <si>
+    <t>Jeff Salazar</t>
+  </si>
+  <si>
+    <t>Paul Ferreira</t>
+  </si>
+  <si>
+    <t>Gary Hilton</t>
   </si>
   <si>
     <t>2001/2002</t>
   </si>
   <si>
-    <t>Tim Hargrave</t>
-  </si>
-  <si>
-    <t>Robert Tobiason</t>
-  </si>
-  <si>
-    <t>Steve Hoag</t>
-  </si>
-  <si>
-    <t>Ed healy</t>
+    <t>Elliot jacobson</t>
+  </si>
+  <si>
+    <t>Dave Moore</t>
+  </si>
+  <si>
+    <t>Rusty Shaffer</t>
+  </si>
+  <si>
+    <t>Tony Cannestra</t>
   </si>
   <si>
     <t>2002/2003</t>
   </si>
   <si>
-    <t>Charles Sheppard</t>
-  </si>
-  <si>
-    <t>Greg Rodrigues</t>
+    <t>Cliff Gustafson</t>
+  </si>
+  <si>
+    <t>1981/1982</t>
   </si>
   <si>
     <t>2003/2004</t>
   </si>
   <si>
-    <t>1979/1980</t>
-  </si>
-  <si>
-    <t>John de Bennedetti</t>
-  </si>
-  <si>
-    <t>Tom Hodge</t>
-  </si>
-  <si>
-    <t>Tim Taylor</t>
+    <t>Howard Hold</t>
+  </si>
+  <si>
+    <t>Todd Pace</t>
+  </si>
+  <si>
+    <t>Scott Brown</t>
+  </si>
+  <si>
+    <t>Mike Norcia</t>
   </si>
   <si>
     <t>2004/2005</t>
   </si>
   <si>
-    <t>Ted Trouard</t>
-  </si>
-  <si>
-    <t>Kevin perry</t>
-  </si>
-  <si>
-    <t>Scott Theis</t>
-  </si>
-  <si>
-    <t>Gary Dorff</t>
+    <t>Craig Isaacson</t>
   </si>
   <si>
     <t>2005/2006</t>
   </si>
   <si>
-    <t>Steve Byrne</t>
-  </si>
-  <si>
-    <t>Greg Wolff</t>
-  </si>
-  <si>
-    <t>Thad Whalen</t>
-  </si>
-  <si>
-    <t>Lee Hold</t>
-  </si>
-  <si>
     <t>2006/2007</t>
   </si>
   <si>
-    <t>John de Benedetti</t>
-  </si>
-  <si>
-    <t>1980/1981</t>
-  </si>
-  <si>
     <t>2007/2008</t>
   </si>
   <si>
-    <t>Mike Stypula</t>
+    <t>1965/1966</t>
+  </si>
+  <si>
+    <t>Steve Hanson</t>
   </si>
   <si>
     <t>2008/2009</t>
   </si>
   <si>
-    <t>Brian Matteoni</t>
-  </si>
-  <si>
-    <t>Randy Foland</t>
-  </si>
-  <si>
-    <t>Jeff Salazar</t>
-  </si>
-  <si>
-    <t>Paul Ferreira</t>
+    <t>1966/1967</t>
   </si>
   <si>
     <t>2009/2010</t>
   </si>
   <si>
-    <t>Gary Hilton</t>
+    <t>Scott Landis</t>
   </si>
   <si>
     <t>Nicole Gragnola</t>
   </si>
   <si>
-    <t>Elliot jacobson</t>
-  </si>
-  <si>
-    <t>Dave Moore</t>
-  </si>
-  <si>
-    <t>Rusty Shaffer</t>
-  </si>
-  <si>
-    <t>Tony Cannestra</t>
-  </si>
-  <si>
-    <t>Cliff Gustafson</t>
+    <t>Frank Fletcher</t>
+  </si>
+  <si>
+    <t>1967/1968</t>
   </si>
   <si>
     <t>2010/2011</t>
   </si>
   <si>
+    <t>John Zuercher</t>
+  </si>
+  <si>
+    <t>Howard hold</t>
+  </si>
+  <si>
     <t>Adrienne Norris</t>
   </si>
   <si>
-    <t>1981/1982</t>
-  </si>
-  <si>
-    <t>Howard Hold</t>
+    <t>Jeff Foster</t>
+  </si>
+  <si>
+    <t>David Wood</t>
   </si>
   <si>
     <t>2011/2012</t>
   </si>
   <si>
-    <t>Todd Pace</t>
+    <t>1968/1969</t>
   </si>
   <si>
     <t>Ailene Nguyen</t>
   </si>
   <si>
-    <t>Scott Brown</t>
-  </si>
-  <si>
-    <t>Mike Norcia</t>
-  </si>
-  <si>
-    <t>Craig Isaacson</t>
-  </si>
-  <si>
-    <t>Frank Fletcher</t>
-  </si>
-  <si>
-    <t>Howard hold</t>
-  </si>
-  <si>
-    <t>Jeff Foster</t>
-  </si>
-  <si>
-    <t>David Wood</t>
+    <t>Scott Loomis</t>
   </si>
   <si>
     <t>1982/1983</t>
@@ -400,93 +457,123 @@
     <t>Steffo Mitakides</t>
   </si>
   <si>
+    <t>Mike Turner</t>
+  </si>
+  <si>
+    <t>Bob Pacheco</t>
+  </si>
+  <si>
+    <t>1969/1970</t>
+  </si>
+  <si>
+    <t>Bruce Hilton</t>
+  </si>
+  <si>
+    <t>Kent Raley</t>
+  </si>
+  <si>
+    <t>Randy Judd</t>
+  </si>
+  <si>
+    <t>Scott Patridge</t>
+  </si>
+  <si>
+    <t>Mike Kibort</t>
+  </si>
+  <si>
+    <t>Peter Nimb</t>
+  </si>
+  <si>
+    <t>Mike Logan</t>
+  </si>
+  <si>
+    <t>1970/1971</t>
+  </si>
+  <si>
+    <t>JimAinlay</t>
+  </si>
+  <si>
+    <t>1983/1984</t>
+  </si>
+  <si>
+    <t>Zane Tabari</t>
+  </si>
+  <si>
+    <t>John Trummel</t>
+  </si>
+  <si>
+    <t>1971/1972</t>
+  </si>
+  <si>
+    <t>Doug Golliher</t>
+  </si>
+  <si>
+    <t>Rick Beatty</t>
+  </si>
+  <si>
+    <t>Ryan Iwanaga</t>
+  </si>
+  <si>
+    <t>Richard Sheppard</t>
+  </si>
+  <si>
     <t>2012/2013</t>
   </si>
   <si>
-    <t>Mike Turner</t>
+    <t>Chris Robinson</t>
+  </si>
+  <si>
+    <t>Andy Banks</t>
   </si>
   <si>
     <t>Hannah Johnson</t>
   </si>
   <si>
-    <t>Bob Pacheco</t>
-  </si>
-  <si>
-    <t>Bruce Hilton</t>
-  </si>
-  <si>
-    <t>Randy Judd</t>
-  </si>
-  <si>
-    <t>Scott Patridge</t>
-  </si>
-  <si>
-    <t>Mike Kibort</t>
+    <t>Doug Hancock</t>
+  </si>
+  <si>
+    <t>Greg Steinbach</t>
+  </si>
+  <si>
+    <t>Ed Kirk</t>
+  </si>
+  <si>
+    <t>1972/1973</t>
   </si>
   <si>
     <t>2013/2014</t>
   </si>
   <si>
-    <t>Peter Nimb</t>
+    <t>Doug Ernst</t>
+  </si>
+  <si>
+    <t>1984/1985</t>
   </si>
   <si>
     <t>Tivoli Sisco</t>
   </si>
   <si>
-    <t>Mike Logan</t>
-  </si>
-  <si>
-    <t>1983/1984</t>
+    <t>John Leckrone</t>
+  </si>
+  <si>
+    <t>Lee Hancock</t>
+  </si>
+  <si>
+    <t>1973/1974</t>
   </si>
   <si>
     <t>2014/2015</t>
   </si>
   <si>
-    <t>Zane Tabari</t>
+    <t>Gary Gatiss</t>
+  </si>
+  <si>
+    <t>Otis Page</t>
   </si>
   <si>
     <t>Puck de Roos</t>
   </si>
   <si>
-    <t>John Trummel</t>
-  </si>
-  <si>
-    <t>Doug Golliher</t>
-  </si>
-  <si>
-    <t>Ryan Iwanaga</t>
-  </si>
-  <si>
-    <t>Richard Sheppard</t>
-  </si>
-  <si>
-    <t>Chris Robinson</t>
-  </si>
-  <si>
-    <t>Andy Banks</t>
-  </si>
-  <si>
-    <t>Doug Hancock</t>
-  </si>
-  <si>
-    <t>Greg Steinbach</t>
-  </si>
-  <si>
-    <t>Ed Kirk</t>
-  </si>
-  <si>
-    <t>1984/1985</t>
-  </si>
-  <si>
-    <t>John Leckrone</t>
-  </si>
-  <si>
-    <t>Lee Hancock</t>
-  </si>
-  <si>
-    <t>Gary Gatiss</t>
-  </si>
-  <si>
     <t>Richard Salazar</t>
   </si>
   <si>
@@ -499,9 +586,15 @@
     <t>Eric Christoferson</t>
   </si>
   <si>
+    <t>1974/1975</t>
+  </si>
+  <si>
     <t>Steve Vindasius</t>
   </si>
   <si>
+    <t>Larry Worman</t>
+  </si>
+  <si>
     <t>Dave Lambert</t>
   </si>
   <si>
@@ -535,63 +628,72 @@
     <t>Tom Adams</t>
   </si>
   <si>
+    <t>Mike Heinrich</t>
+  </si>
+  <si>
     <t>Aaron Gustafson</t>
   </si>
   <si>
+    <t>Steve Liao</t>
+  </si>
+  <si>
+    <t>John Devine</t>
+  </si>
+  <si>
+    <t>Ted Rafalovich</t>
+  </si>
+  <si>
+    <t>Dave Schwartz</t>
+  </si>
+  <si>
+    <t>John Denery</t>
+  </si>
+  <si>
+    <t>Brian Gurney</t>
+  </si>
+  <si>
+    <t>Tyson Draeger</t>
+  </si>
+  <si>
+    <t>Randy Arrillaga</t>
+  </si>
+  <si>
+    <t>Jim Elliott</t>
+  </si>
+  <si>
+    <t>Craig Tammel</t>
+  </si>
+  <si>
     <t>2015/2016</t>
   </si>
   <si>
-    <t>Steve Liao</t>
-  </si>
-  <si>
-    <t>John Devine</t>
-  </si>
-  <si>
-    <t>Dave Schwartz</t>
+    <t>Matt Wilson</t>
   </si>
   <si>
     <t>2016/2017</t>
   </si>
   <si>
-    <t>John Denery</t>
-  </si>
-  <si>
-    <t>Brian Gurney</t>
-  </si>
-  <si>
-    <t>Tyson Draeger</t>
+    <t>Peter Newton</t>
+  </si>
+  <si>
+    <t>David Ansnes</t>
   </si>
   <si>
     <t>2017/2018</t>
   </si>
   <si>
-    <t>Jim Elliott</t>
-  </si>
-  <si>
-    <t>Craig Tammel</t>
+    <t>Keith tokar</t>
+  </si>
+  <si>
+    <t>Curtis Kanazawa</t>
+  </si>
+  <si>
+    <t>Jeff Vierra</t>
   </si>
   <si>
     <t>2018/2019</t>
   </si>
   <si>
-    <t>Matt Wilson</t>
-  </si>
-  <si>
-    <t>Peter Newton</t>
-  </si>
-  <si>
-    <t>David Ansnes</t>
-  </si>
-  <si>
-    <t>Keith tokar</t>
-  </si>
-  <si>
-    <t>Curtis Kanazawa</t>
-  </si>
-  <si>
-    <t>Jeff Vierra</t>
-  </si>
-  <si>
     <t>David Martin</t>
   </si>
   <si>
@@ -604,13 +706,10 @@
     <t>Frazier Hubbard</t>
   </si>
   <si>
-    <t>1959/1960</t>
-  </si>
-  <si>
     <t>Mike Burnett</t>
   </si>
   <si>
-    <t>Wayne Brazil</t>
+    <t>Jeff Arrillaga</t>
   </si>
   <si>
     <t>Jeff Lawler</t>
@@ -622,34 +721,37 @@
     <t>Sam Moore</t>
   </si>
   <si>
+    <t>Chris Ryan</t>
+  </si>
+  <si>
     <t>Dan Edson</t>
   </si>
   <si>
     <t>Ed Owen</t>
   </si>
   <si>
-    <t>1960/1961</t>
-  </si>
-  <si>
     <t>Christian Saucedo</t>
   </si>
   <si>
-    <t>Hal Shaffer</t>
-  </si>
-  <si>
     <t>Craig Dooley</t>
   </si>
   <si>
     <t>Travis Binen</t>
   </si>
   <si>
-    <t>1961/1962</t>
-  </si>
-  <si>
-    <t>1962/1963</t>
-  </si>
-  <si>
-    <t>Mike Hitchman</t>
+    <t>Ted Macauley</t>
+  </si>
+  <si>
+    <t>Bill Haselman</t>
+  </si>
+  <si>
+    <t>Jason Krumwiede</t>
+  </si>
+  <si>
+    <t>Pat Breitenback</t>
+  </si>
+  <si>
+    <t>T.J. Summers</t>
   </si>
   <si>
     <t>Alex Chalmers</t>
@@ -658,15 +760,12 @@
     <t>Steve Fragiadakis</t>
   </si>
   <si>
-    <t>1963/1964</t>
+    <t>Rusty Dehorn</t>
   </si>
   <si>
     <t>Justin Claeys</t>
   </si>
   <si>
-    <t>John Brazil</t>
-  </si>
-  <si>
     <t>Mike Levine</t>
   </si>
   <si>
@@ -676,28 +775,31 @@
     <t>Dave Brittain</t>
   </si>
   <si>
+    <t>Peter Feng</t>
+  </si>
+  <si>
     <t>Brian Nugent</t>
   </si>
   <si>
     <t>Chris Leung</t>
   </si>
   <si>
-    <t>1964/1965</t>
-  </si>
-  <si>
-    <t>Jim Mayfield</t>
-  </si>
-  <si>
     <t>Joe Scheuermann</t>
   </si>
   <si>
     <t>Kevin Bell</t>
   </si>
   <si>
+    <t>Chris Byrer</t>
+  </si>
+  <si>
+    <t>Matt Jones</t>
+  </si>
+  <si>
     <t>Brian Lynch</t>
   </si>
   <si>
-    <t>Rusty Dehorn</t>
+    <t>Kyle Goni</t>
   </si>
   <si>
     <t>Ross Friedman</t>
@@ -715,70 +817,52 @@
     <t>Lee Kole</t>
   </si>
   <si>
+    <t>Ken Nickel</t>
+  </si>
+  <si>
     <t>Brian Becker</t>
   </si>
   <si>
     <t>Marc Gemassmer</t>
   </si>
   <si>
-    <t>1965/1966</t>
-  </si>
-  <si>
     <t>Ryan Bocks</t>
   </si>
   <si>
-    <t>Steve Hanson</t>
-  </si>
-  <si>
     <t>Brian Hanley</t>
   </si>
   <si>
+    <t>Davide Goni</t>
+  </si>
+  <si>
     <t>Marc Hall</t>
   </si>
   <si>
-    <t>Peter Feng</t>
-  </si>
-  <si>
-    <t>1966/1967</t>
-  </si>
-  <si>
     <t>Sheldon Chang</t>
   </si>
   <si>
     <t>James Renola</t>
   </si>
   <si>
-    <t>Scott Landis</t>
-  </si>
-  <si>
     <t>Brian hanley</t>
   </si>
   <si>
     <t>Mike Janjigian</t>
   </si>
   <si>
+    <t>Michael Black</t>
+  </si>
+  <si>
     <t>Tom Philbrick</t>
   </si>
   <si>
-    <t>Chris Byrer</t>
-  </si>
-  <si>
-    <t>1967/1968</t>
-  </si>
-  <si>
-    <t>John Zuercher</t>
-  </si>
-  <si>
     <t>Sadi Abou Khater</t>
   </si>
   <si>
     <t>Scott Curry</t>
   </si>
   <si>
-    <t>1968/1969</t>
-  </si>
-  <si>
-    <t>Scott Loomis</t>
+    <t>Ryan Bernardo</t>
   </si>
   <si>
     <t>Steve Sugimura</t>
@@ -796,15 +880,12 @@
     <t>Joe Andolina</t>
   </si>
   <si>
-    <t>1969/1970</t>
+    <t>Daniel Goni</t>
   </si>
   <si>
     <t>Pat Chiang</t>
   </si>
   <si>
-    <t>Kent Raley</t>
-  </si>
-  <si>
     <t>Andy Schneider</t>
   </si>
   <si>
@@ -814,13 +895,10 @@
     <t>Dan Svalya</t>
   </si>
   <si>
-    <t>1970/1971</t>
-  </si>
-  <si>
     <t>Billy Clark</t>
   </si>
   <si>
-    <t>JimAinlay</t>
+    <t>Andrew Bosworth</t>
   </si>
   <si>
     <t>Lawrence Chan</t>
@@ -835,40 +913,31 @@
     <t>Mike Jessup</t>
   </si>
   <si>
-    <t>1971/1972</t>
-  </si>
-  <si>
     <t>Pat Vlaskovits</t>
   </si>
   <si>
-    <t>Rick Beatty</t>
-  </si>
-  <si>
     <t>Patrick Chiang</t>
   </si>
   <si>
+    <t>Jesse Alejandro</t>
+  </si>
+  <si>
     <t>Chris Kron</t>
   </si>
   <si>
     <t>Bobby Keller</t>
   </si>
   <si>
-    <t>Kyle Goni</t>
-  </si>
-  <si>
     <t>Dan Garcia</t>
   </si>
   <si>
-    <t>1972/1973</t>
-  </si>
-  <si>
     <t>Christian Roth</t>
   </si>
   <si>
     <t>Jaison Carter</t>
   </si>
   <si>
-    <t>Doug Ernst</t>
+    <t>AJ Weitsman</t>
   </si>
   <si>
     <t>Eugene Min</t>
@@ -886,15 +955,12 @@
     <t>Gabe Calebotta</t>
   </si>
   <si>
-    <t>1973/1974</t>
-  </si>
-  <si>
-    <t>Otis Page</t>
-  </si>
-  <si>
     <t>Steve Oberhauser</t>
   </si>
   <si>
+    <t>Greg Van Hoesen</t>
+  </si>
+  <si>
     <t>Brian Webster</t>
   </si>
   <si>
@@ -907,13 +973,10 @@
     <t>Todd Combellick</t>
   </si>
   <si>
-    <t>1974/1975</t>
-  </si>
-  <si>
     <t>Paul Chen</t>
   </si>
   <si>
-    <t>Larry Worman</t>
+    <t>Chris Hrnberger</t>
   </si>
   <si>
     <t>Simon O'Connell</t>
@@ -925,7 +988,7 @@
     <t>Kyle Cardin</t>
   </si>
   <si>
-    <t>Michael Black</t>
+    <t>Daniel Wallace</t>
   </si>
   <si>
     <t>Hank Nothhaft</t>
@@ -940,9 +1003,6 @@
     <t>Kevin Buskirk</t>
   </si>
   <si>
-    <t>Mike Heinrich</t>
-  </si>
-  <si>
     <t>Chung Park</t>
   </si>
   <si>
@@ -958,9 +1018,6 @@
     <t>Troy Cardin</t>
   </si>
   <si>
-    <t>Ted Rafalovich</t>
-  </si>
-  <si>
     <t>Bret Pahler</t>
   </si>
   <si>
@@ -973,9 +1030,6 @@
     <t>Chipper Martin III</t>
   </si>
   <si>
-    <t>Randy Arrillaga</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chad Allen </t>
   </si>
   <si>
@@ -997,9 +1051,6 @@
     <t>Alex Shoor</t>
   </si>
   <si>
-    <t>Daniel Goni</t>
-  </si>
-  <si>
     <t>Brian Doore</t>
   </si>
   <si>
@@ -1012,6 +1063,9 @@
     <t>Jordan Jones</t>
   </si>
   <si>
+    <t>Grant Thomas</t>
+  </si>
+  <si>
     <t>Keith Follmar</t>
   </si>
   <si>
@@ -1030,18 +1084,15 @@
     <t>Bryce Allen</t>
   </si>
   <si>
+    <t>Timothy Rollinson</t>
+  </si>
+  <si>
     <t>Schuler Lovoi</t>
   </si>
   <si>
     <t>Jimmy Chao</t>
   </si>
   <si>
-    <t>Jeff Arrillaga</t>
-  </si>
-  <si>
-    <t>Andrew Bosworth</t>
-  </si>
-  <si>
     <t>Scott Lewis</t>
   </si>
   <si>
@@ -1054,12 +1105,12 @@
     <t>Caleb Mosley</t>
   </si>
   <si>
-    <t>Chris Ryan</t>
-  </si>
-  <si>
     <t>Mike Mann</t>
   </si>
   <si>
+    <t>Mitchell Casas, Troy Doles</t>
+  </si>
+  <si>
     <t>Jacob Christopherson</t>
   </si>
   <si>
@@ -1075,21 +1126,18 @@
     <t>James Cummins</t>
   </si>
   <si>
-    <t>Ted Macauley</t>
-  </si>
-  <si>
     <t>Guido Graziosi</t>
   </si>
   <si>
     <t>Ori Kawahara</t>
   </si>
   <si>
+    <t>Kyle Dozier</t>
+  </si>
+  <si>
     <t>Justin Oliver</t>
   </si>
   <si>
-    <t>Bill Haselman</t>
-  </si>
-  <si>
     <t>C.K. Kaplan</t>
   </si>
   <si>
@@ -1099,6 +1147,9 @@
     <t>Scott Moran</t>
   </si>
   <si>
+    <t>William Guy</t>
+  </si>
+  <si>
     <t>Trevor Adams</t>
   </si>
   <si>
@@ -1117,24 +1168,21 @@
     <t>Chad usher</t>
   </si>
   <si>
+    <t>Joseph Medeiros, Steven Sum</t>
+  </si>
+  <si>
     <t>Stephen Azzi</t>
   </si>
   <si>
     <t>Buck Wright</t>
   </si>
   <si>
-    <t>Jason Krumwiede</t>
-  </si>
-  <si>
     <t>Matt Ashburn</t>
   </si>
   <si>
     <t>Jacob Osborne</t>
   </si>
   <si>
-    <t>Greg Van Hoesen</t>
-  </si>
-  <si>
     <t>Matt Widert</t>
   </si>
   <si>
@@ -1147,9 +1195,6 @@
     <t>Ben Duncan</t>
   </si>
   <si>
-    <t>Pat Breitenback</t>
-  </si>
-  <si>
     <t>Stphen Azzi</t>
   </si>
   <si>
@@ -1177,9 +1222,6 @@
     <t>A.J. Kerin</t>
   </si>
   <si>
-    <t>T.J. Summers</t>
-  </si>
-  <si>
     <t>Tom Cummins</t>
   </si>
   <si>
@@ -1228,9 +1270,6 @@
     <t>Kenneth Douglas</t>
   </si>
   <si>
-    <t>Matt Jones</t>
-  </si>
-  <si>
     <t>Steven Marinero</t>
   </si>
   <si>
@@ -1258,9 +1297,6 @@
     <t>Sean Casserly</t>
   </si>
   <si>
-    <t>Ken Nickel</t>
-  </si>
-  <si>
     <t>Cameron Bunker</t>
   </si>
   <si>
@@ -1276,12 +1312,6 @@
     <t>Douglas Macklin</t>
   </si>
   <si>
-    <t>Davide Goni</t>
-  </si>
-  <si>
-    <t>Ryan Bernardo</t>
-  </si>
-  <si>
     <t>Brandon Chow</t>
   </si>
   <si>
@@ -1312,9 +1342,6 @@
     <t>Christian Biederman</t>
   </si>
   <si>
-    <t>Jesse Alejandro</t>
-  </si>
-  <si>
     <t>Joseph Avery</t>
   </si>
   <si>
@@ -1336,9 +1363,6 @@
     <t>Timothy Tsai</t>
   </si>
   <si>
-    <t>AJ Weitsman</t>
-  </si>
-  <si>
     <t>Nickan Mortazzavi</t>
   </si>
   <si>
@@ -1348,9 +1372,6 @@
     <t>Vincent Carstens</t>
   </si>
   <si>
-    <t>Grant Thomas</t>
-  </si>
-  <si>
     <t>Andrew Johnson</t>
   </si>
   <si>
@@ -1369,9 +1390,6 @@
     <t>Trevor Teerlink</t>
   </si>
   <si>
-    <t>Chris Hrnberger</t>
-  </si>
-  <si>
     <t>Kevin Yao</t>
   </si>
   <si>
@@ -1387,9 +1405,6 @@
     <t>James Reed</t>
   </si>
   <si>
-    <t>Daniel Wallace</t>
-  </si>
-  <si>
     <t>Alex Chan</t>
   </si>
   <si>
@@ -1411,9 +1426,6 @@
     <t>Andrew Wong</t>
   </si>
   <si>
-    <t>Timothy Rollinson</t>
-  </si>
-  <si>
     <t>Garrett Huening</t>
   </si>
   <si>
@@ -1453,9 +1465,6 @@
     <t>Hayden Mitchell</t>
   </si>
   <si>
-    <t>Kyle Dozier</t>
-  </si>
-  <si>
     <t xml:space="preserve">Keaton Matusich </t>
   </si>
   <si>
@@ -1474,9 +1483,6 @@
     <t>Henry Wei</t>
   </si>
   <si>
-    <t>William Guy</t>
-  </si>
-  <si>
     <t>Matthew Lee</t>
   </si>
   <si>
@@ -1486,9 +1492,6 @@
     <t>Thomas Alexander</t>
   </si>
   <si>
-    <t>Troy Doles</t>
-  </si>
-  <si>
     <t>Andrew Bryan</t>
   </si>
   <si>
@@ -1498,60 +1501,60 @@
     <t>Christian Galvin</t>
   </si>
   <si>
+    <t>Anthony Capek</t>
+  </si>
+  <si>
+    <t>Cameron Borch</t>
+  </si>
+  <si>
+    <t>Sanjay Kaliyur</t>
+  </si>
+  <si>
+    <t>Clark Wang</t>
+  </si>
+  <si>
+    <t>Stephen Cho</t>
+  </si>
+  <si>
+    <t>Kevin Tran</t>
+  </si>
+  <si>
+    <t>Graham Grant</t>
+  </si>
+  <si>
+    <t>Clark Rothenberg</t>
+  </si>
+  <si>
+    <t>Michael Cole</t>
+  </si>
+  <si>
+    <t>Maximillian Chang</t>
+  </si>
+  <si>
     <t>Joseph Medeiros</t>
   </si>
   <si>
+    <t>Andrew Harter</t>
+  </si>
+  <si>
+    <t>Arman Vaziri</t>
+  </si>
+  <si>
+    <t>Connor Peebles</t>
+  </si>
+  <si>
+    <t>Cian Costello</t>
+  </si>
+  <si>
+    <t>Winston Vo</t>
+  </si>
+  <si>
+    <t>Neel Bedekar</t>
+  </si>
+  <si>
     <t>Steven Sum</t>
   </si>
   <si>
-    <t>Anthony Capek</t>
-  </si>
-  <si>
-    <t>Cameron Borch</t>
-  </si>
-  <si>
-    <t>Sanjay Kaliyur</t>
-  </si>
-  <si>
-    <t>Clark Wang</t>
-  </si>
-  <si>
-    <t>Stephen Cho</t>
-  </si>
-  <si>
-    <t>Kevin Tran</t>
-  </si>
-  <si>
-    <t>Graham Grant</t>
-  </si>
-  <si>
-    <t>Clark Rothenberg</t>
-  </si>
-  <si>
-    <t>Michael Cole</t>
-  </si>
-  <si>
-    <t>Maximillian Chang</t>
-  </si>
-  <si>
-    <t>Andrew Harter</t>
-  </si>
-  <si>
-    <t>Arman Vaziri</t>
-  </si>
-  <si>
-    <t>Connor Peebles</t>
-  </si>
-  <si>
-    <t>Cian Costello</t>
-  </si>
-  <si>
-    <t>Winston Vo</t>
-  </si>
-  <si>
-    <t>Neel Bedekar</t>
-  </si>
-  <si>
     <t>Christian Murabito</t>
   </si>
   <si>
@@ -1732,6 +1735,21 @@
     <t>Sara Parden</t>
   </si>
   <si>
+    <t>Ashwin Siripurapu</t>
+  </si>
+  <si>
+    <t>Anshu Siripurapu</t>
+  </si>
+  <si>
+    <t>Amin Mirzadegan</t>
+  </si>
+  <si>
+    <t>Sarah Finley</t>
+  </si>
+  <si>
+    <t>Matthew Nobles</t>
+  </si>
+  <si>
     <t>Ally Doles</t>
   </si>
   <si>
@@ -1745,21 +1763,6 @@
   </si>
   <si>
     <t>Joshua Pi</t>
-  </si>
-  <si>
-    <t>Ashwin Siripurapu</t>
-  </si>
-  <si>
-    <t>Anshu Siripurapu</t>
-  </si>
-  <si>
-    <t>Amin Mirzadegan</t>
-  </si>
-  <si>
-    <t>Sarah Finley</t>
-  </si>
-  <si>
-    <t>Matthew Nobles</t>
   </si>
   <si>
     <t>Lifesaver Award</t>
@@ -1868,10 +1871,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1905,39 +1908,39 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1993,710 +1996,706 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>177</v>
+      <c r="A61" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="s">
-        <v>181</v>
+      <c r="A62" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="s">
-        <v>184</v>
+      <c r="A63" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2718,243 +2717,243 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="3"/>
+      <c r="A25" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="2"/>
+      <c r="A26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="5"/>
+      <c r="A27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="7"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="1"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>173</v>
+      <c r="A31" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>177</v>
+      <c r="A32" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>181</v>
+      <c r="A33" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>184</v>
+      <c r="A34" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2978,1735 +2977,1735 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="B14" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="B16" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="B18" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1" t="s">
+      <c r="B19" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="B20" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B22" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="B23" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="B25" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="B26" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="B28" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="B29" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="B32" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="B33" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="B34" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="B37" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="B38" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="B39" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="B40" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="B41" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="B42" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="B43" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="K44" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="L16" s="1" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="P16" s="1" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="K44" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4727,374 +4726,374 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="2"/>
+      <c r="A4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="2"/>
+      <c r="A6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="2"/>
+      <c r="A7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="2"/>
+      <c r="A10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="2"/>
+      <c r="A11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="A12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>521</v>
       </c>
+      <c r="H12" s="2" t="s">
+        <v>522</v>
+      </c>
       <c r="I12" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="K12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="M12" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="N12" s="2" t="s">
         <v>527</v>
       </c>
+      <c r="O12" s="2" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="A13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="G13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="G13" s="2"/>
       <c r="I13" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="J13" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="K13" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="L13" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="M13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>537</v>
       </c>
+      <c r="O13" s="2" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="A14" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="D14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="K14" s="1" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="J14" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="L14" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>543</v>
+      <c r="M14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="A15" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="J15" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="K15" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="L15" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="M15" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="N15" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="O15" s="2" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>558</v>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="A17" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>563</v>
       </c>
+      <c r="F17" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="G17" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="H17" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="I17" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="J17" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="K17" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N17" s="1" t="s">
+      <c r="L17" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>559</v>
+      <c r="M17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="2"/>
+      <c r="A19" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="2"/>
+      <c r="A20" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="2"/>
+      <c r="A21" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" s="2"/>
+      <c r="A22" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5112,191 +5111,191 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1986.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1987.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1988.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>1990.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>1991.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>1992.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>1993.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>1994.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>1995.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>1996.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>1998.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>1999.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>2000.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>2001.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>2002.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>2003.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>2004.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>2005.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>2006.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>2007.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>2008.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>2009.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>2010.0</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>2011.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>2012.0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>2013.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>2014.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>2015.0</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>2011.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>2012.0</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>2013.0</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>2014.0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>2015.0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="4">
         <v>2016.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="4">
         <v>2017.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="4">
         <v>2018.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="4">
         <v>2019.0</v>
       </c>
     </row>
@@ -5316,188 +5315,188 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1986.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1987.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1988.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>1990.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>1991.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>1992.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>1993.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>1994.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>1995.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>1996.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>1998.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>1999.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>2000.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>2001.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>2002.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>2003.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>2004.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>2005.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>2006.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>2007.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>2008.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>2009.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>2010.0</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>571</v>
+      <c r="B27" s="2" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>2011.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>2012.0</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>572</v>
+      <c r="B29" s="2" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>2013.0</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>573</v>
+      <c r="B30" s="2" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>2014.0</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>574</v>
+      <c r="B31" s="2" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>2015.0</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>575</v>
+      <c r="B32" s="2" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="4">
         <v>2016.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="4">
         <v>2017.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="4">
         <v>2018.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="4">
         <v>2019.0</v>
       </c>
     </row>
@@ -5520,17 +5519,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1986.0</v>
       </c>
       <c r="B2" s="12"/>
@@ -5538,7 +5537,7 @@
       <c r="D2" s="12"/>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1987.0</v>
       </c>
       <c r="B3" s="12"/>
@@ -5551,7 +5550,7 @@
       <c r="D4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1988.0</v>
       </c>
       <c r="B5" s="12"/>
@@ -5559,7 +5558,7 @@
       <c r="D5" s="12"/>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>1990.0</v>
       </c>
       <c r="B6" s="12"/>
@@ -5567,7 +5566,7 @@
       <c r="D6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>1991.0</v>
       </c>
       <c r="B7" s="12"/>
@@ -5575,7 +5574,7 @@
       <c r="D7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>1992.0</v>
       </c>
       <c r="B8" s="12"/>
@@ -5583,17 +5582,17 @@
       <c r="D8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>1993.0</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>1994.0</v>
       </c>
       <c r="B10" s="12"/>
@@ -5601,61 +5600,61 @@
       <c r="D10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>1995.0</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>1996.0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>1997.0</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>1998.0</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>1999.0</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>2000.0</v>
       </c>
       <c r="B16" s="12"/>
@@ -5663,7 +5662,7 @@
       <c r="D16" s="12"/>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>2001.0</v>
       </c>
       <c r="B17" s="12"/>
@@ -5671,97 +5670,97 @@
       <c r="D17" s="12"/>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>2002.0</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>589</v>
-      </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>2003.0</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>2004.0</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D20" s="12"/>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>2005.0</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>2006.0</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D22" s="12"/>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>2007.0</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D23" s="12"/>
     </row>
     <row r="24">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
     <row r="25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>2008.0</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D25" s="12"/>
     </row>
     <row r="26">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>2009.0</v>
       </c>
       <c r="B26" s="12"/>
@@ -5769,77 +5768,77 @@
       <c r="D26" s="12"/>
     </row>
     <row r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>2010.0</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D27" s="12"/>
     </row>
     <row r="28">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>2011.0</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D28" s="12"/>
     </row>
     <row r="29">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>2012.0</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
     <row r="30">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>2013.0</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D30" s="12"/>
     </row>
     <row r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>2014.0</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
     <row r="32">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>2015.0</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="4">
         <v>2016.0</v>
       </c>
       <c r="B33" s="12"/>
@@ -5847,7 +5846,7 @@
       <c r="D33" s="12"/>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="4">
         <v>2017.0</v>
       </c>
       <c r="B34" s="12"/>
@@ -5855,7 +5854,7 @@
       <c r="D34" s="12"/>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="4">
         <v>2018.0</v>
       </c>
       <c r="B35" s="12"/>
@@ -5863,7 +5862,7 @@
       <c r="D35" s="12"/>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="4">
         <v>2019.0</v>
       </c>
       <c r="B36" s="12"/>
